--- a/input/TRA_user_set.xlsx
+++ b/input/TRA_user_set.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epish\PycharmProjects\endemo-endemo-v2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675BE72E-86F6-4F44-9713-309625B0413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9524CC0-EFDF-41EE-BC81-B5072D01D803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
     <sheet name="Info" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AH$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AC$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="167">
   <si>
     <t>Belgium</t>
   </si>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>Factor</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Lower limit</t>
+  </si>
+  <si>
+    <t>futture DDr</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +602,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,7 +705,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -723,6 +752,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1006,26 +1043,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AG259"/>
+  <dimension ref="A1:AH261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>73</v>
       </c>
@@ -1072,43 +1109,49 @@
         <v>129</v>
       </c>
       <c r="P1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2020</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2030</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2040</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2050</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2100</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1124,6 +1167,10 @@
       <c r="I2" t="s">
         <v>93</v>
       </c>
+      <c r="J2">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
       <c r="K2" t="s">
         <v>130</v>
       </c>
@@ -1136,8 +1183,11 @@
       <c r="N2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>101</v>
       </c>
@@ -1153,6 +1203,10 @@
       <c r="I3" t="s">
         <v>93</v>
       </c>
+      <c r="J3">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
       <c r="K3" t="s">
         <v>130</v>
       </c>
@@ -1165,8 +1219,11 @@
       <c r="N3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1182,6 +1239,10 @@
       <c r="I4" t="s">
         <v>95</v>
       </c>
+      <c r="J4">
+        <f>10000000</f>
+        <v>10000000</v>
+      </c>
       <c r="K4" t="s">
         <v>130</v>
       </c>
@@ -1194,8 +1255,11 @@
       <c r="N4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1211,6 +1275,10 @@
       <c r="I5" t="s">
         <v>95</v>
       </c>
+      <c r="J5">
+        <f>10000000</f>
+        <v>10000000</v>
+      </c>
       <c r="K5" t="s">
         <v>130</v>
       </c>
@@ -1223,8 +1291,11 @@
       <c r="N5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,6 +1311,10 @@
       <c r="I6" t="s">
         <v>97</v>
       </c>
+      <c r="J6">
+        <f>10000000</f>
+        <v>10000000</v>
+      </c>
       <c r="K6" t="s">
         <v>130</v>
       </c>
@@ -1250,10 +1325,16 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1269,6 +1350,10 @@
       <c r="I7" t="s">
         <v>97</v>
       </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J70" si="0">10000000</f>
+        <v>10000000</v>
+      </c>
       <c r="K7" t="s">
         <v>130</v>
       </c>
@@ -1279,10 +1364,16 @@
         <v>131</v>
       </c>
       <c r="N7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1298,6 +1389,10 @@
       <c r="I8" t="s">
         <v>97</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K8" t="s">
         <v>130</v>
       </c>
@@ -1308,10 +1403,16 @@
         <v>131</v>
       </c>
       <c r="N8" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1327,6 +1428,10 @@
       <c r="I9" t="s">
         <v>97</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K9" t="s">
         <v>130</v>
       </c>
@@ -1337,10 +1442,16 @@
         <v>131</v>
       </c>
       <c r="N9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1356,6 +1467,10 @@
       <c r="I10" t="s">
         <v>97</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K10" t="s">
         <v>130</v>
       </c>
@@ -1366,10 +1481,16 @@
         <v>131</v>
       </c>
       <c r="N10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1385,6 +1506,10 @@
       <c r="I11" t="s">
         <v>97</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K11" t="s">
         <v>130</v>
       </c>
@@ -1395,10 +1520,16 @@
         <v>131</v>
       </c>
       <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1414,6 +1545,10 @@
       <c r="I12" t="s">
         <v>97</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K12" t="s">
         <v>130</v>
       </c>
@@ -1424,10 +1559,16 @@
         <v>131</v>
       </c>
       <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1443,6 +1584,10 @@
       <c r="I13" t="s">
         <v>97</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K13" t="s">
         <v>130</v>
       </c>
@@ -1453,10 +1598,16 @@
         <v>131</v>
       </c>
       <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1472,6 +1623,10 @@
       <c r="I14" t="s">
         <v>97</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K14" t="s">
         <v>130</v>
       </c>
@@ -1482,10 +1637,16 @@
         <v>131</v>
       </c>
       <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1501,6 +1662,10 @@
       <c r="I15" t="s">
         <v>97</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K15" t="s">
         <v>130</v>
       </c>
@@ -1511,10 +1676,16 @@
         <v>131</v>
       </c>
       <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="P15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1530,6 +1701,10 @@
       <c r="I16" t="s">
         <v>97</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K16" t="s">
         <v>130</v>
       </c>
@@ -1540,10 +1715,16 @@
         <v>131</v>
       </c>
       <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1559,6 +1740,10 @@
       <c r="I17" t="s">
         <v>97</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K17" t="s">
         <v>130</v>
       </c>
@@ -1569,10 +1754,16 @@
         <v>131</v>
       </c>
       <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1588,6 +1779,10 @@
       <c r="I18" t="s">
         <v>97</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K18" t="s">
         <v>130</v>
       </c>
@@ -1598,10 +1793,16 @@
         <v>131</v>
       </c>
       <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1617,6 +1818,10 @@
       <c r="I19" t="s">
         <v>97</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K19" t="s">
         <v>130</v>
       </c>
@@ -1627,10 +1832,16 @@
         <v>131</v>
       </c>
       <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,6 +1857,10 @@
       <c r="I20" t="s">
         <v>97</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K20" t="s">
         <v>130</v>
       </c>
@@ -1656,10 +1871,16 @@
         <v>131</v>
       </c>
       <c r="N20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1675,6 +1896,10 @@
       <c r="I21" t="s">
         <v>97</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K21" t="s">
         <v>130</v>
       </c>
@@ -1685,10 +1910,16 @@
         <v>131</v>
       </c>
       <c r="N21" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1704,6 +1935,10 @@
       <c r="I22" t="s">
         <v>97</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K22" t="s">
         <v>130</v>
       </c>
@@ -1714,10 +1949,16 @@
         <v>131</v>
       </c>
       <c r="N22" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1733,6 +1974,10 @@
       <c r="I23" t="s">
         <v>97</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K23" t="s">
         <v>130</v>
       </c>
@@ -1743,10 +1988,16 @@
         <v>131</v>
       </c>
       <c r="N23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1762,6 +2013,10 @@
       <c r="I24" t="s">
         <v>97</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K24" t="s">
         <v>130</v>
       </c>
@@ -1772,10 +2027,16 @@
         <v>131</v>
       </c>
       <c r="N24" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1791,6 +2052,10 @@
       <c r="I25" t="s">
         <v>97</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K25" t="s">
         <v>130</v>
       </c>
@@ -1801,10 +2066,16 @@
         <v>131</v>
       </c>
       <c r="N25" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1820,6 +2091,10 @@
       <c r="I26" t="s">
         <v>97</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K26" t="s">
         <v>130</v>
       </c>
@@ -1830,10 +2105,16 @@
         <v>131</v>
       </c>
       <c r="N26" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1849,6 +2130,10 @@
       <c r="I27" t="s">
         <v>97</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K27" t="s">
         <v>130</v>
       </c>
@@ -1859,10 +2144,16 @@
         <v>131</v>
       </c>
       <c r="N27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,6 +2169,10 @@
       <c r="I28" t="s">
         <v>97</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K28" t="s">
         <v>130</v>
       </c>
@@ -1888,10 +2183,16 @@
         <v>131</v>
       </c>
       <c r="N28" t="s">
+        <v>134</v>
+      </c>
+      <c r="P28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1907,6 +2208,10 @@
       <c r="I29" t="s">
         <v>97</v>
       </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K29" t="s">
         <v>130</v>
       </c>
@@ -1917,10 +2222,16 @@
         <v>131</v>
       </c>
       <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,6 +2247,10 @@
       <c r="I30" t="s">
         <v>97</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K30" t="s">
         <v>130</v>
       </c>
@@ -1946,10 +2261,16 @@
         <v>131</v>
       </c>
       <c r="N30" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1965,6 +2286,10 @@
       <c r="I31" t="s">
         <v>97</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K31" t="s">
         <v>130</v>
       </c>
@@ -1975,10 +2300,16 @@
         <v>131</v>
       </c>
       <c r="N31" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1994,6 +2325,10 @@
       <c r="I32" t="s">
         <v>97</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K32" t="s">
         <v>130</v>
       </c>
@@ -2004,10 +2339,16 @@
         <v>131</v>
       </c>
       <c r="N32" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -2023,6 +2364,10 @@
       <c r="I33" t="s">
         <v>97</v>
       </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K33" t="s">
         <v>130</v>
       </c>
@@ -2033,10 +2378,16 @@
         <v>131</v>
       </c>
       <c r="N33" t="s">
+        <v>134</v>
+      </c>
+      <c r="P33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2052,6 +2403,10 @@
       <c r="I34" t="s">
         <v>97</v>
       </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K34" t="s">
         <v>130</v>
       </c>
@@ -2062,10 +2417,16 @@
         <v>131</v>
       </c>
       <c r="N34" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2081,6 +2442,10 @@
       <c r="I35" t="s">
         <v>97</v>
       </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K35" t="s">
         <v>130</v>
       </c>
@@ -2091,10 +2456,16 @@
         <v>131</v>
       </c>
       <c r="N35" t="s">
+        <v>134</v>
+      </c>
+      <c r="P35" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -2110,6 +2481,10 @@
       <c r="I36" t="s">
         <v>97</v>
       </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K36" t="s">
         <v>130</v>
       </c>
@@ -2120,10 +2495,16 @@
         <v>131</v>
       </c>
       <c r="N36" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2139,6 +2520,10 @@
       <c r="I37" t="s">
         <v>97</v>
       </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K37" t="s">
         <v>130</v>
       </c>
@@ -2149,10 +2534,16 @@
         <v>131</v>
       </c>
       <c r="N37" t="s">
+        <v>134</v>
+      </c>
+      <c r="P37" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -2168,6 +2559,10 @@
       <c r="I38" t="s">
         <v>97</v>
       </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K38" t="s">
         <v>130</v>
       </c>
@@ -2178,10 +2573,16 @@
         <v>131</v>
       </c>
       <c r="N38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2197,6 +2598,10 @@
       <c r="I39" t="s">
         <v>97</v>
       </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K39" t="s">
         <v>130</v>
       </c>
@@ -2207,10 +2612,16 @@
         <v>131</v>
       </c>
       <c r="N39" t="s">
+        <v>134</v>
+      </c>
+      <c r="P39" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -2226,6 +2637,10 @@
       <c r="I40" t="s">
         <v>97</v>
       </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K40" t="s">
         <v>130</v>
       </c>
@@ -2236,10 +2651,16 @@
         <v>131</v>
       </c>
       <c r="N40" t="s">
+        <v>134</v>
+      </c>
+      <c r="P40" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2255,6 +2676,10 @@
       <c r="I41" t="s">
         <v>97</v>
       </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K41" t="s">
         <v>130</v>
       </c>
@@ -2265,10 +2690,16 @@
         <v>131</v>
       </c>
       <c r="N41" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2284,6 +2715,10 @@
       <c r="I42" t="s">
         <v>97</v>
       </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K42" t="s">
         <v>130</v>
       </c>
@@ -2294,10 +2729,16 @@
         <v>131</v>
       </c>
       <c r="N42" t="s">
+        <v>134</v>
+      </c>
+      <c r="P42" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -2313,6 +2754,10 @@
       <c r="I43" t="s">
         <v>97</v>
       </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K43" t="s">
         <v>130</v>
       </c>
@@ -2323,10 +2768,16 @@
         <v>131</v>
       </c>
       <c r="N43" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -2342,6 +2793,10 @@
       <c r="I44" t="s">
         <v>97</v>
       </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K44" t="s">
         <v>130</v>
       </c>
@@ -2352,10 +2807,16 @@
         <v>131</v>
       </c>
       <c r="N44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -2371,6 +2832,10 @@
       <c r="I45" t="s">
         <v>97</v>
       </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K45" t="s">
         <v>130</v>
       </c>
@@ -2381,10 +2846,16 @@
         <v>131</v>
       </c>
       <c r="N45" t="s">
+        <v>134</v>
+      </c>
+      <c r="P45" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2400,6 +2871,10 @@
       <c r="I46" t="s">
         <v>97</v>
       </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K46" t="s">
         <v>130</v>
       </c>
@@ -2410,10 +2885,16 @@
         <v>131</v>
       </c>
       <c r="N46" t="s">
+        <v>134</v>
+      </c>
+      <c r="P46" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2429,6 +2910,10 @@
       <c r="I47" t="s">
         <v>97</v>
       </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K47" t="s">
         <v>130</v>
       </c>
@@ -2439,10 +2924,16 @@
         <v>131</v>
       </c>
       <c r="N47" t="s">
+        <v>134</v>
+      </c>
+      <c r="P47" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -2458,6 +2949,10 @@
       <c r="I48" t="s">
         <v>97</v>
       </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K48" t="s">
         <v>130</v>
       </c>
@@ -2468,10 +2963,16 @@
         <v>131</v>
       </c>
       <c r="N48" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -2487,6 +2988,10 @@
       <c r="I49" t="s">
         <v>97</v>
       </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K49" t="s">
         <v>130</v>
       </c>
@@ -2497,10 +3002,16 @@
         <v>131</v>
       </c>
       <c r="N49" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -2516,6 +3027,10 @@
       <c r="I50" t="s">
         <v>97</v>
       </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K50" t="s">
         <v>130</v>
       </c>
@@ -2526,10 +3041,16 @@
         <v>131</v>
       </c>
       <c r="N50" t="s">
+        <v>134</v>
+      </c>
+      <c r="P50" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -2545,6 +3066,10 @@
       <c r="I51" t="s">
         <v>97</v>
       </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K51" t="s">
         <v>130</v>
       </c>
@@ -2555,10 +3080,16 @@
         <v>131</v>
       </c>
       <c r="N51" t="s">
+        <v>134</v>
+      </c>
+      <c r="P51" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -2574,6 +3105,10 @@
       <c r="I52" t="s">
         <v>97</v>
       </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K52" t="s">
         <v>130</v>
       </c>
@@ -2584,10 +3119,16 @@
         <v>131</v>
       </c>
       <c r="N52" t="s">
+        <v>134</v>
+      </c>
+      <c r="P52" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -2603,6 +3144,10 @@
       <c r="I53" t="s">
         <v>97</v>
       </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K53" t="s">
         <v>130</v>
       </c>
@@ -2613,10 +3158,16 @@
         <v>131</v>
       </c>
       <c r="N53" t="s">
+        <v>134</v>
+      </c>
+      <c r="P53" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -2632,6 +3183,10 @@
       <c r="I54" t="s">
         <v>97</v>
       </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K54" t="s">
         <v>130</v>
       </c>
@@ -2642,10 +3197,16 @@
         <v>131</v>
       </c>
       <c r="N54" t="s">
+        <v>134</v>
+      </c>
+      <c r="P54" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -2661,6 +3222,10 @@
       <c r="I55" t="s">
         <v>97</v>
       </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K55" t="s">
         <v>130</v>
       </c>
@@ -2671,10 +3236,16 @@
         <v>131</v>
       </c>
       <c r="N55" t="s">
+        <v>134</v>
+      </c>
+      <c r="P55" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -2690,6 +3261,10 @@
       <c r="I56" t="s">
         <v>97</v>
       </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K56" t="s">
         <v>130</v>
       </c>
@@ -2700,10 +3275,16 @@
         <v>131</v>
       </c>
       <c r="N56" t="s">
+        <v>134</v>
+      </c>
+      <c r="P56" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2719,6 +3300,10 @@
       <c r="I57" t="s">
         <v>97</v>
       </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K57" t="s">
         <v>130</v>
       </c>
@@ -2729,10 +3314,16 @@
         <v>131</v>
       </c>
       <c r="N57" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -2748,6 +3339,10 @@
       <c r="I58" t="s">
         <v>97</v>
       </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K58" t="s">
         <v>130</v>
       </c>
@@ -2758,10 +3353,16 @@
         <v>131</v>
       </c>
       <c r="N58" t="s">
+        <v>134</v>
+      </c>
+      <c r="P58" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -2777,6 +3378,10 @@
       <c r="I59" t="s">
         <v>97</v>
       </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K59" t="s">
         <v>130</v>
       </c>
@@ -2787,10 +3392,16 @@
         <v>131</v>
       </c>
       <c r="N59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
@@ -2806,6 +3417,10 @@
       <c r="I60" t="s">
         <v>97</v>
       </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K60" t="s">
         <v>130</v>
       </c>
@@ -2816,10 +3431,16 @@
         <v>131</v>
       </c>
       <c r="N60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P60" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -2835,6 +3456,10 @@
       <c r="I61" t="s">
         <v>97</v>
       </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K61" t="s">
         <v>130</v>
       </c>
@@ -2845,10 +3470,16 @@
         <v>131</v>
       </c>
       <c r="N61" t="s">
+        <v>134</v>
+      </c>
+      <c r="P61" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
@@ -2864,6 +3495,10 @@
       <c r="I62" t="s">
         <v>97</v>
       </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K62" t="s">
         <v>130</v>
       </c>
@@ -2874,10 +3509,16 @@
         <v>131</v>
       </c>
       <c r="N62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -2893,6 +3534,10 @@
       <c r="I63" t="s">
         <v>97</v>
       </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K63" t="s">
         <v>130</v>
       </c>
@@ -2903,10 +3548,16 @@
         <v>131</v>
       </c>
       <c r="N63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -2922,6 +3573,10 @@
       <c r="I64" t="s">
         <v>97</v>
       </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K64" t="s">
         <v>130</v>
       </c>
@@ -2932,10 +3587,16 @@
         <v>131</v>
       </c>
       <c r="N64" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>23</v>
       </c>
@@ -2951,6 +3612,10 @@
       <c r="I65" t="s">
         <v>97</v>
       </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K65" t="s">
         <v>130</v>
       </c>
@@ -2961,10 +3626,16 @@
         <v>131</v>
       </c>
       <c r="N65" t="s">
+        <v>134</v>
+      </c>
+      <c r="P65" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -2980,6 +3651,10 @@
       <c r="I66" t="s">
         <v>97</v>
       </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K66" t="s">
         <v>130</v>
       </c>
@@ -2990,10 +3665,16 @@
         <v>131</v>
       </c>
       <c r="N66" t="s">
+        <v>134</v>
+      </c>
+      <c r="P66" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -3009,6 +3690,10 @@
       <c r="I67" t="s">
         <v>97</v>
       </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K67" t="s">
         <v>130</v>
       </c>
@@ -3019,10 +3704,16 @@
         <v>131</v>
       </c>
       <c r="N67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>26</v>
       </c>
@@ -3038,6 +3729,10 @@
       <c r="I68" t="s">
         <v>97</v>
       </c>
+      <c r="J68">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K68" t="s">
         <v>130</v>
       </c>
@@ -3048,10 +3743,16 @@
         <v>131</v>
       </c>
       <c r="N68" t="s">
+        <v>134</v>
+      </c>
+      <c r="P68" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -3067,6 +3768,10 @@
       <c r="I69" t="s">
         <v>97</v>
       </c>
+      <c r="J69">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K69" t="s">
         <v>130</v>
       </c>
@@ -3077,10 +3782,16 @@
         <v>131</v>
       </c>
       <c r="N69" t="s">
+        <v>134</v>
+      </c>
+      <c r="P69" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -3096,6 +3807,10 @@
       <c r="I70" t="s">
         <v>97</v>
       </c>
+      <c r="J70">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
       <c r="K70" t="s">
         <v>130</v>
       </c>
@@ -3106,10 +3821,16 @@
         <v>131</v>
       </c>
       <c r="N70" t="s">
+        <v>134</v>
+      </c>
+      <c r="P70" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
@@ -3125,6 +3846,10 @@
       <c r="I71" t="s">
         <v>97</v>
       </c>
+      <c r="J71">
+        <f t="shared" ref="J71:J77" si="1">10000000</f>
+        <v>10000000</v>
+      </c>
       <c r="K71" t="s">
         <v>130</v>
       </c>
@@ -3135,10 +3860,16 @@
         <v>131</v>
       </c>
       <c r="N71" t="s">
+        <v>134</v>
+      </c>
+      <c r="P71" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
@@ -3154,6 +3885,10 @@
       <c r="I72" t="s">
         <v>97</v>
       </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
       <c r="K72" t="s">
         <v>130</v>
       </c>
@@ -3164,10 +3899,16 @@
         <v>131</v>
       </c>
       <c r="N72" t="s">
+        <v>134</v>
+      </c>
+      <c r="P72" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
@@ -3183,6 +3924,10 @@
       <c r="I73" t="s">
         <v>97</v>
       </c>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
       <c r="K73" t="s">
         <v>130</v>
       </c>
@@ -3193,10 +3938,16 @@
         <v>131</v>
       </c>
       <c r="N73" t="s">
+        <v>134</v>
+      </c>
+      <c r="P73" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>32</v>
       </c>
@@ -3212,6 +3963,10 @@
       <c r="I74" t="s">
         <v>97</v>
       </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
       <c r="K74" t="s">
         <v>130</v>
       </c>
@@ -3222,10 +3977,16 @@
         <v>131</v>
       </c>
       <c r="N74" t="s">
+        <v>134</v>
+      </c>
+      <c r="P74" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
@@ -3241,6 +4002,10 @@
       <c r="I75" t="s">
         <v>97</v>
       </c>
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
       <c r="K75" t="s">
         <v>130</v>
       </c>
@@ -3251,10 +4016,16 @@
         <v>131</v>
       </c>
       <c r="N75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>34</v>
       </c>
@@ -3270,6 +4041,10 @@
       <c r="I76" t="s">
         <v>97</v>
       </c>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
       <c r="K76" t="s">
         <v>130</v>
       </c>
@@ -3280,10 +4055,16 @@
         <v>131</v>
       </c>
       <c r="N76" t="s">
+        <v>134</v>
+      </c>
+      <c r="P76" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AC76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>35</v>
       </c>
@@ -3299,20 +4080,33 @@
       <c r="I77" t="s">
         <v>97</v>
       </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
       <c r="K77" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L77" t="s">
         <v>139</v>
       </c>
       <c r="M77" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="N77" t="s">
+        <v>134</v>
+      </c>
+      <c r="P77" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3331,6 +4125,9 @@
       <c r="I78" t="s">
         <v>36</v>
       </c>
+      <c r="J78">
+        <v>0.01</v>
+      </c>
       <c r="K78" t="s">
         <v>130</v>
       </c>
@@ -3344,14 +4141,17 @@
         <v>134</v>
       </c>
       <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V78" s="4"/>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -3370,6 +4170,9 @@
       <c r="I79" t="s">
         <v>36</v>
       </c>
+      <c r="J79">
+        <v>0.01</v>
+      </c>
       <c r="K79" t="s">
         <v>130</v>
       </c>
@@ -3383,14 +4186,17 @@
         <v>134</v>
       </c>
       <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V79" s="4"/>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3408,6 +4214,9 @@
       </c>
       <c r="I80" t="s">
         <v>36</v>
+      </c>
+      <c r="J80">
+        <v>0.01</v>
       </c>
       <c r="K80" t="s">
         <v>130</v>
@@ -3428,8 +4237,12 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V80" s="4"/>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -3447,6 +4260,9 @@
       </c>
       <c r="I81" t="s">
         <v>36</v>
+      </c>
+      <c r="J81">
+        <v>0.01</v>
       </c>
       <c r="K81" t="s">
         <v>130</v>
@@ -3467,8 +4283,12 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V81" s="4"/>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3486,6 +4306,9 @@
       </c>
       <c r="I82" t="s">
         <v>36</v>
+      </c>
+      <c r="J82">
+        <v>0.01</v>
       </c>
       <c r="K82" t="s">
         <v>130</v>
@@ -3506,8 +4329,12 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V82" s="4"/>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -3525,6 +4352,9 @@
       </c>
       <c r="I83" t="s">
         <v>36</v>
+      </c>
+      <c r="J83">
+        <v>0.01</v>
       </c>
       <c r="K83" t="s">
         <v>130</v>
@@ -3545,8 +4375,12 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V83" s="4"/>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3565,6 +4399,9 @@
       <c r="I84" t="s">
         <v>36</v>
       </c>
+      <c r="J84">
+        <v>0.01</v>
+      </c>
       <c r="K84" t="s">
         <v>130</v>
       </c>
@@ -3577,8 +4414,11 @@
       <c r="N84" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AC84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -3597,6 +4437,9 @@
       <c r="I85" t="s">
         <v>36</v>
       </c>
+      <c r="J85">
+        <v>0.01</v>
+      </c>
       <c r="K85" t="s">
         <v>130</v>
       </c>
@@ -3609,8 +4452,11 @@
       <c r="N85" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AC85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3629,6 +4475,9 @@
       <c r="I86" t="s">
         <v>36</v>
       </c>
+      <c r="J86">
+        <v>0.01</v>
+      </c>
       <c r="K86" t="s">
         <v>130</v>
       </c>
@@ -3641,9 +4490,12 @@
       <c r="N86" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="V86" s="2"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W86" s="2"/>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -3662,6 +4514,9 @@
       <c r="I87" t="s">
         <v>36</v>
       </c>
+      <c r="J87">
+        <v>0.01</v>
+      </c>
       <c r="K87" t="s">
         <v>130</v>
       </c>
@@ -3674,9 +4529,12 @@
       <c r="N87" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="V87" s="2"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W87" s="2"/>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3695,6 +4553,9 @@
       <c r="I88" t="s">
         <v>36</v>
       </c>
+      <c r="J88">
+        <v>0.01</v>
+      </c>
       <c r="K88" t="s">
         <v>130</v>
       </c>
@@ -3707,8 +4568,11 @@
       <c r="N88" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AC88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -3727,6 +4591,9 @@
       <c r="I89" t="s">
         <v>36</v>
       </c>
+      <c r="J89">
+        <v>0.01</v>
+      </c>
       <c r="K89" t="s">
         <v>130</v>
       </c>
@@ -3739,8 +4606,11 @@
       <c r="N89" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AC89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -3756,12 +4626,16 @@
       <c r="E90" t="s">
         <v>87</v>
       </c>
+      <c r="F90" s="25"/>
       <c r="G90" t="s">
         <v>117</v>
       </c>
       <c r="I90" t="s">
         <v>36</v>
       </c>
+      <c r="J90">
+        <v>0.01</v>
+      </c>
       <c r="K90" t="s">
         <v>135</v>
       </c>
@@ -3771,8 +4645,14 @@
       <c r="M90" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N90" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -3788,12 +4668,16 @@
       <c r="E91" t="s">
         <v>87</v>
       </c>
+      <c r="F91" s="25"/>
       <c r="G91" t="s">
         <v>118</v>
       </c>
       <c r="I91" t="s">
         <v>36</v>
       </c>
+      <c r="J91">
+        <v>0.01</v>
+      </c>
       <c r="K91" t="s">
         <v>135</v>
       </c>
@@ -3803,8 +4687,14 @@
       <c r="M91" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N91" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -3820,12 +4710,16 @@
       <c r="E92" t="s">
         <v>87</v>
       </c>
+      <c r="F92" s="25"/>
       <c r="G92" t="s">
         <v>119</v>
       </c>
       <c r="I92" t="s">
         <v>36</v>
       </c>
+      <c r="J92">
+        <v>0.01</v>
+      </c>
       <c r="K92" t="s">
         <v>135</v>
       </c>
@@ -3835,8 +4729,14 @@
       <c r="M92" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N92" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -3852,12 +4752,16 @@
       <c r="E93" t="s">
         <v>81</v>
       </c>
+      <c r="F93" s="25"/>
       <c r="G93" t="s">
         <v>120</v>
       </c>
       <c r="I93" t="s">
         <v>36</v>
       </c>
+      <c r="J93">
+        <v>0.01</v>
+      </c>
       <c r="K93" t="s">
         <v>135</v>
       </c>
@@ -3867,8 +4771,14 @@
       <c r="M93" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -3884,12 +4794,16 @@
       <c r="E94" t="s">
         <v>81</v>
       </c>
+      <c r="F94" s="25"/>
       <c r="G94" t="s">
         <v>121</v>
       </c>
       <c r="I94" t="s">
         <v>36</v>
       </c>
+      <c r="J94">
+        <v>0.01</v>
+      </c>
       <c r="K94" t="s">
         <v>135</v>
       </c>
@@ -3899,8 +4813,14 @@
       <c r="M94" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N94" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3916,12 +4836,16 @@
       <c r="E95" t="s">
         <v>81</v>
       </c>
+      <c r="F95" s="25"/>
       <c r="G95" t="s">
         <v>122</v>
       </c>
       <c r="I95" t="s">
         <v>36</v>
       </c>
+      <c r="J95">
+        <v>0.01</v>
+      </c>
       <c r="K95" t="s">
         <v>135</v>
       </c>
@@ -3931,8 +4855,14 @@
       <c r="M95" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N95" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -3948,12 +4878,16 @@
       <c r="E96" t="s">
         <v>81</v>
       </c>
+      <c r="F96" s="25"/>
       <c r="G96" t="s">
         <v>123</v>
       </c>
       <c r="I96" t="s">
         <v>36</v>
       </c>
+      <c r="J96">
+        <v>0.01</v>
+      </c>
       <c r="K96" t="s">
         <v>135</v>
       </c>
@@ -3963,8 +4897,14 @@
       <c r="M96" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="97" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N96" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -4012,27 +4952,30 @@
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
-      <c r="V97" s="2">
-        <v>0</v>
-      </c>
+      <c r="V97" s="9"/>
       <c r="W97" s="2">
+        <v>0</v>
+      </c>
+      <c r="X97" s="2">
         <v>2</v>
       </c>
-      <c r="X97" s="2">
-        <f>(Y97+W97)/2</f>
+      <c r="Y97" s="2">
+        <f>(Z97+X97)/2</f>
         <v>34.33</v>
       </c>
-      <c r="Y97" s="2">
+      <c r="Z97" s="2">
         <v>66.66</v>
       </c>
-      <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
-      <c r="AD97" s="2"/>
+      <c r="AC97">
+        <v>0</v>
+      </c>
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
       <c r="AG97" s="2"/>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH97" s="2"/>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -4080,27 +5023,30 @@
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
-      <c r="V98" s="2">
+      <c r="V98" s="9"/>
+      <c r="W98" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W98" s="2">
+      <c r="X98" s="2">
         <v>20</v>
       </c>
-      <c r="X98" s="2">
-        <f t="shared" ref="X98" si="0">(Y98+W98)/2</f>
+      <c r="Y98" s="2">
+        <f t="shared" ref="Y98" si="2">(Z98+X98)/2</f>
         <v>43.33</v>
       </c>
-      <c r="Y98" s="2">
+      <c r="Z98" s="2">
         <v>66.66</v>
       </c>
-      <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
-      <c r="AD98" s="2"/>
+      <c r="AC98">
+        <v>0</v>
+      </c>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
       <c r="AG98" s="2"/>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH98" s="2"/>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
@@ -4148,27 +5094,30 @@
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
-      <c r="V99" s="2">
+      <c r="V99" s="9"/>
+      <c r="W99" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W99" s="2">
+      <c r="X99" s="2">
         <v>20</v>
       </c>
-      <c r="X99" s="2">
-        <f t="shared" ref="X99:X103" si="1">(Y99+W99)/2</f>
+      <c r="Y99" s="2">
+        <f t="shared" ref="Y99:Y103" si="3">(Z99+X99)/2</f>
         <v>43.33</v>
       </c>
-      <c r="Y99" s="2">
+      <c r="Z99" s="2">
         <v>66.66</v>
       </c>
-      <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
-      <c r="AD99" s="2"/>
+      <c r="AC99">
+        <v>0</v>
+      </c>
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
       <c r="AG99" s="2"/>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH99" s="2"/>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>25</v>
       </c>
@@ -4216,27 +5165,30 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
-      <c r="V100" s="2">
+      <c r="V100" s="9"/>
+      <c r="W100" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W100" s="2">
+      <c r="X100" s="2">
         <v>20</v>
       </c>
-      <c r="X100" s="2">
-        <f t="shared" si="1"/>
+      <c r="Y100" s="2">
+        <f t="shared" si="3"/>
         <v>43.33</v>
       </c>
-      <c r="Y100" s="2">
+      <c r="Z100" s="2">
         <v>66.66</v>
       </c>
-      <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
-      <c r="AD100" s="2"/>
+      <c r="AC100">
+        <v>0</v>
+      </c>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
       <c r="AG100" s="2"/>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH100" s="2"/>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>26</v>
       </c>
@@ -4284,27 +5236,30 @@
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
-      <c r="V101" s="2">
+      <c r="V101" s="9"/>
+      <c r="W101" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W101" s="2">
+      <c r="X101" s="2">
         <v>20</v>
       </c>
-      <c r="X101" s="2">
-        <f t="shared" si="1"/>
+      <c r="Y101" s="2">
+        <f t="shared" si="3"/>
         <v>43.33</v>
       </c>
-      <c r="Y101" s="2">
+      <c r="Z101" s="2">
         <v>66.66</v>
       </c>
-      <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
-      <c r="AD101" s="2"/>
+      <c r="AC101">
+        <v>0</v>
+      </c>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
       <c r="AG101" s="2"/>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH101" s="2"/>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>28</v>
       </c>
@@ -4352,27 +5307,30 @@
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
-      <c r="V102" s="2">
+      <c r="V102" s="9"/>
+      <c r="W102" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W102" s="2">
+      <c r="X102" s="2">
         <v>20</v>
       </c>
-      <c r="X102" s="2">
-        <f t="shared" si="1"/>
+      <c r="Y102" s="2">
+        <f t="shared" si="3"/>
         <v>43.33</v>
       </c>
-      <c r="Y102" s="2">
+      <c r="Z102" s="2">
         <v>66.66</v>
       </c>
-      <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
-      <c r="AD102" s="2"/>
+      <c r="AC102">
+        <v>0</v>
+      </c>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
       <c r="AG102" s="2"/>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH102" s="2"/>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>29</v>
       </c>
@@ -4420,34 +5378,37 @@
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
-      <c r="V103" s="2">
+      <c r="V103" s="9"/>
+      <c r="W103" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W103" s="2">
+      <c r="X103" s="2">
         <v>20</v>
       </c>
-      <c r="X103" s="2">
-        <f t="shared" si="1"/>
+      <c r="Y103" s="2">
+        <f t="shared" si="3"/>
         <v>43.33</v>
       </c>
-      <c r="Y103" s="2">
+      <c r="Z103" s="2">
         <v>66.66</v>
       </c>
-      <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
-      <c r="AD103" s="2"/>
+      <c r="AC103">
+        <v>0</v>
+      </c>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
       <c r="AG103" s="2"/>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH103" s="2"/>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" t="s">
         <v>80</v>
       </c>
       <c r="D104" s="9" t="s">
@@ -4488,27 +5449,30 @@
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
-      <c r="V104" s="2">
-        <v>0</v>
-      </c>
+      <c r="V104" s="9"/>
       <c r="W104" s="2">
+        <v>0</v>
+      </c>
+      <c r="X104" s="2">
         <v>2</v>
       </c>
-      <c r="X104" s="2">
-        <f>(Y104+W104)/2</f>
+      <c r="Y104" s="2">
+        <f>(Z104+X104)/2</f>
         <v>34.33</v>
       </c>
-      <c r="Y104" s="2">
+      <c r="Z104" s="2">
         <v>66.66</v>
       </c>
-      <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
-      <c r="AD104" s="2"/>
+      <c r="AC104">
+        <v>0</v>
+      </c>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
       <c r="AG104" s="2"/>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH104" s="2"/>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -4556,21 +5520,25 @@
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
-      <c r="V105" s="2">
-        <v>0</v>
-      </c>
+      <c r="V105" s="9"/>
       <c r="W105" s="2">
         <v>0</v>
       </c>
       <c r="X105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="2">
         <v>2</v>
       </c>
-      <c r="Y105" s="2">
+      <c r="Z105" s="2">
         <v>33.33</v>
       </c>
-      <c r="AA105" s="2"/>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AB105" s="2"/>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -4618,21 +5586,25 @@
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
-      <c r="V106" s="2">
-        <v>0</v>
-      </c>
+      <c r="V106" s="9"/>
       <c r="W106" s="2">
+        <v>0</v>
+      </c>
+      <c r="X106" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X106" s="2">
+      <c r="Y106" s="2">
         <v>20</v>
       </c>
-      <c r="Y106" s="2">
+      <c r="Z106" s="2">
         <v>33.33</v>
       </c>
-      <c r="AA106" s="2"/>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AB106" s="2"/>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>18</v>
       </c>
@@ -4680,21 +5652,25 @@
       <c r="S107" s="9"/>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
-      <c r="V107" s="2">
-        <v>0</v>
-      </c>
+      <c r="V107" s="9"/>
       <c r="W107" s="2">
+        <v>0</v>
+      </c>
+      <c r="X107" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X107" s="2">
+      <c r="Y107" s="2">
         <v>20</v>
       </c>
-      <c r="Y107" s="2">
+      <c r="Z107" s="2">
         <v>33.33</v>
       </c>
-      <c r="AA107" s="2"/>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AB107" s="2"/>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>25</v>
       </c>
@@ -4742,21 +5718,25 @@
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
-      <c r="V108" s="2">
-        <v>0</v>
-      </c>
+      <c r="V108" s="9"/>
       <c r="W108" s="2">
+        <v>0</v>
+      </c>
+      <c r="X108" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X108" s="2">
+      <c r="Y108" s="2">
         <v>20</v>
       </c>
-      <c r="Y108" s="2">
+      <c r="Z108" s="2">
         <v>33.33</v>
       </c>
-      <c r="AA108" s="2"/>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AB108" s="2"/>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>26</v>
       </c>
@@ -4804,21 +5784,25 @@
       <c r="S109" s="9"/>
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
-      <c r="V109" s="2">
-        <v>0</v>
-      </c>
+      <c r="V109" s="9"/>
       <c r="W109" s="2">
+        <v>0</v>
+      </c>
+      <c r="X109" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X109" s="2">
+      <c r="Y109" s="2">
         <v>20</v>
       </c>
-      <c r="Y109" s="2">
+      <c r="Z109" s="2">
         <v>33.33</v>
       </c>
-      <c r="AA109" s="2"/>
-    </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AB109" s="2"/>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>28</v>
       </c>
@@ -4866,21 +5850,25 @@
       <c r="S110" s="9"/>
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
-      <c r="V110" s="2">
-        <v>0</v>
-      </c>
+      <c r="V110" s="9"/>
       <c r="W110" s="2">
+        <v>0</v>
+      </c>
+      <c r="X110" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X110" s="2">
+      <c r="Y110" s="2">
         <v>20</v>
       </c>
-      <c r="Y110" s="2">
+      <c r="Z110" s="2">
         <v>33.33</v>
       </c>
-      <c r="AA110" s="2"/>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AB110" s="2"/>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>29</v>
       </c>
@@ -4928,28 +5916,32 @@
       <c r="S111" s="9"/>
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
-      <c r="V111" s="2">
-        <v>0</v>
-      </c>
+      <c r="V111" s="9"/>
       <c r="W111" s="2">
+        <v>0</v>
+      </c>
+      <c r="X111" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X111" s="2">
+      <c r="Y111" s="2">
         <v>20</v>
       </c>
-      <c r="Y111" s="2">
+      <c r="Z111" s="2">
         <v>33.33</v>
       </c>
-      <c r="AA111" s="2"/>
-    </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AB111" s="2"/>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>101</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C112" s="9" t="s">
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -4990,21 +5982,25 @@
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
-      <c r="V112" s="2">
-        <v>0</v>
-      </c>
+      <c r="V112" s="9"/>
       <c r="W112" s="2">
         <v>0</v>
       </c>
       <c r="X112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="2">
         <v>2</v>
       </c>
-      <c r="Y112" s="2">
+      <c r="Z112" s="2">
         <v>33.33</v>
       </c>
-      <c r="AA112" s="2"/>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB112" s="2"/>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -5045,23 +6041,26 @@
       <c r="N113" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V113">
-        <v>97.560975609756099</v>
-      </c>
       <c r="W113">
         <v>97.560975609756099</v>
       </c>
       <c r="X113">
+        <v>97.560975609756099</v>
+      </c>
+      <c r="Y113">
         <v>98.780487804878049</v>
       </c>
-      <c r="Y113">
+      <c r="Z113">
         <v>100</v>
       </c>
-      <c r="AA113" t="s">
+      <c r="AB113" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -5102,23 +6101,26 @@
       <c r="N114" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V114">
-        <v>92.951219512195124</v>
-      </c>
       <c r="W114">
         <v>92.951219512195124</v>
       </c>
       <c r="X114">
+        <v>92.951219512195124</v>
+      </c>
+      <c r="Y114">
         <v>96.475609756097555</v>
       </c>
-      <c r="Y114">
+      <c r="Z114">
         <v>100</v>
       </c>
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
@@ -5159,23 +6161,26 @@
       <c r="N115" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V115">
-        <v>51.864406779661017</v>
-      </c>
       <c r="W115">
         <v>51.864406779661017</v>
       </c>
       <c r="X115">
+        <v>51.864406779661017</v>
+      </c>
+      <c r="Y115">
         <v>75.932203389830505</v>
       </c>
-      <c r="Y115">
+      <c r="Z115">
         <v>100</v>
       </c>
-      <c r="AA115" t="s">
+      <c r="AB115" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
@@ -5216,23 +6221,26 @@
       <c r="N116" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V116">
-        <v>44.389830508474567</v>
-      </c>
       <c r="W116">
         <v>44.389830508474567</v>
       </c>
       <c r="X116">
+        <v>44.389830508474567</v>
+      </c>
+      <c r="Y116">
         <v>66.584745762711847</v>
       </c>
-      <c r="Y116">
+      <c r="Z116">
         <v>88.779661016949134</v>
       </c>
-      <c r="AA116" t="s">
+      <c r="AB116" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
@@ -5273,23 +6281,26 @@
       <c r="N117" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V117">
-        <v>90.243902439024396</v>
-      </c>
       <c r="W117">
         <v>90.243902439024396</v>
       </c>
       <c r="X117">
+        <v>90.243902439024396</v>
+      </c>
+      <c r="Y117">
         <v>95.121951219512198</v>
       </c>
-      <c r="Y117">
+      <c r="Z117">
         <v>100</v>
       </c>
-      <c r="AA117" t="s">
+      <c r="AB117" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
@@ -5330,23 +6341,26 @@
       <c r="N118" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V118">
-        <v>25.474576271186443</v>
-      </c>
       <c r="W118">
         <v>25.474576271186443</v>
       </c>
       <c r="X118">
+        <v>25.474576271186443</v>
+      </c>
+      <c r="Y118">
         <v>38.211864406779668</v>
       </c>
-      <c r="Y118">
+      <c r="Z118">
         <v>50.949152542372886</v>
       </c>
-      <c r="AA118" t="s">
+      <c r="AB118" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
@@ -5387,23 +6401,26 @@
       <c r="N119" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V119">
-        <v>0</v>
-      </c>
       <c r="W119">
         <v>0</v>
       </c>
       <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
         <v>50</v>
       </c>
-      <c r="Y119">
+      <c r="Z119">
         <v>100</v>
       </c>
-      <c r="AA119" t="s">
+      <c r="AB119" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -5444,23 +6461,26 @@
       <c r="N120" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V120">
-        <v>35.694915254237294</v>
-      </c>
       <c r="W120">
         <v>35.694915254237294</v>
       </c>
       <c r="X120">
+        <v>35.694915254237294</v>
+      </c>
+      <c r="Y120">
         <v>53.542372881355945</v>
       </c>
-      <c r="Y120">
+      <c r="Z120">
         <v>71.389830508474589</v>
       </c>
-      <c r="AA120" t="s">
+      <c r="AB120" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -5501,23 +6521,26 @@
       <c r="N121" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V121">
-        <v>91.219512195121951</v>
-      </c>
       <c r="W121">
         <v>91.219512195121951</v>
       </c>
       <c r="X121">
+        <v>91.219512195121951</v>
+      </c>
+      <c r="Y121">
         <v>95.609756097560975</v>
       </c>
-      <c r="Y121">
+      <c r="Z121">
         <v>100</v>
       </c>
-      <c r="AA121" t="s">
+      <c r="AB121" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -5558,23 +6581,26 @@
       <c r="N122" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V122">
-        <v>88.609756097560975</v>
-      </c>
       <c r="W122">
         <v>88.609756097560975</v>
       </c>
       <c r="X122">
+        <v>88.609756097560975</v>
+      </c>
+      <c r="Y122">
         <v>94.304878048780495</v>
       </c>
-      <c r="Y122">
+      <c r="Z122">
         <v>100</v>
       </c>
-      <c r="AA122" t="s">
+      <c r="AB122" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -5615,23 +6641,26 @@
       <c r="N123" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V123">
-        <v>56.898305084745758</v>
-      </c>
       <c r="W123">
         <v>56.898305084745758</v>
       </c>
       <c r="X123">
+        <v>56.898305084745758</v>
+      </c>
+      <c r="Y123">
         <v>78.449152542372872</v>
       </c>
-      <c r="Y123">
+      <c r="Z123">
         <v>100</v>
       </c>
-      <c r="AA123" t="s">
+      <c r="AB123" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>11</v>
       </c>
@@ -5672,23 +6701,26 @@
       <c r="N124" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V124">
-        <v>92.975609756097555</v>
-      </c>
       <c r="W124">
         <v>92.975609756097555</v>
       </c>
       <c r="X124">
+        <v>92.975609756097555</v>
+      </c>
+      <c r="Y124">
         <v>96.487804878048777</v>
       </c>
-      <c r="Y124">
+      <c r="Z124">
         <v>100</v>
       </c>
-      <c r="AA124" t="s">
+      <c r="AB124" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
@@ -5729,9 +6761,6 @@
       <c r="N125" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V125">
-        <v>100</v>
-      </c>
       <c r="W125">
         <v>100</v>
       </c>
@@ -5741,11 +6770,17 @@
       <c r="Y125">
         <v>100</v>
       </c>
-      <c r="AA125" t="s">
+      <c r="Z125">
+        <v>100</v>
+      </c>
+      <c r="AB125" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -5786,23 +6821,26 @@
       <c r="N126" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V126">
-        <v>20.440677966101703</v>
-      </c>
       <c r="W126">
         <v>20.440677966101703</v>
       </c>
       <c r="X126">
+        <v>20.440677966101703</v>
+      </c>
+      <c r="Y126">
         <v>30.661016949152554</v>
       </c>
-      <c r="Y126">
+      <c r="Z126">
         <v>40.881355932203405</v>
       </c>
-      <c r="AA126" t="s">
+      <c r="AB126" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>14</v>
       </c>
@@ -5843,23 +6881,26 @@
       <c r="N127" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V127">
-        <v>9.9152542372881349</v>
-      </c>
       <c r="W127">
         <v>9.9152542372881349</v>
       </c>
       <c r="X127">
+        <v>9.9152542372881349</v>
+      </c>
+      <c r="Y127">
         <v>14.872881355932202</v>
       </c>
-      <c r="Y127">
+      <c r="Z127">
         <v>19.83050847457627</v>
       </c>
-      <c r="AA127" t="s">
+      <c r="AB127" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>15</v>
       </c>
@@ -5900,23 +6941,26 @@
       <c r="N128" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V128">
-        <v>98.853658536585371</v>
-      </c>
       <c r="W128">
         <v>98.853658536585371</v>
       </c>
       <c r="X128">
+        <v>98.853658536585371</v>
+      </c>
+      <c r="Y128">
         <v>99.426829268292693</v>
       </c>
-      <c r="Y128">
+      <c r="Z128">
         <v>100</v>
       </c>
-      <c r="AA128" t="s">
+      <c r="AB128" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -5957,23 +7001,26 @@
       <c r="N129" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V129">
-        <v>59.49152542372881</v>
-      </c>
       <c r="W129">
         <v>59.49152542372881</v>
       </c>
       <c r="X129">
+        <v>59.49152542372881</v>
+      </c>
+      <c r="Y129">
         <v>79.745762711864401</v>
       </c>
-      <c r="Y129">
+      <c r="Z129">
         <v>100</v>
       </c>
-      <c r="AA129" t="s">
+      <c r="AB129" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>17</v>
       </c>
@@ -6014,9 +7061,6 @@
       <c r="N130" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V130">
-        <v>100</v>
-      </c>
       <c r="W130">
         <v>100</v>
       </c>
@@ -6026,11 +7070,17 @@
       <c r="Y130">
         <v>100</v>
       </c>
-      <c r="AA130" t="s">
+      <c r="Z130">
+        <v>100</v>
+      </c>
+      <c r="AB130" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>18</v>
       </c>
@@ -6071,23 +7121,26 @@
       <c r="N131" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V131">
-        <v>92.658536585365852</v>
-      </c>
       <c r="W131">
         <v>92.658536585365852</v>
       </c>
       <c r="X131">
+        <v>92.658536585365852</v>
+      </c>
+      <c r="Y131">
         <v>96.329268292682926</v>
       </c>
-      <c r="Y131">
+      <c r="Z131">
         <v>100</v>
       </c>
-      <c r="AA131" t="s">
+      <c r="AB131" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>19</v>
       </c>
@@ -6128,23 +7181,26 @@
       <c r="N132" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V132">
-        <v>92.975609756097555</v>
-      </c>
       <c r="W132">
         <v>92.975609756097555</v>
       </c>
       <c r="X132">
+        <v>92.975609756097555</v>
+      </c>
+      <c r="Y132">
         <v>96.487804878048777</v>
       </c>
-      <c r="Y132">
+      <c r="Z132">
         <v>100</v>
       </c>
-      <c r="AA132" t="s">
+      <c r="AB132" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>20</v>
       </c>
@@ -6185,23 +7241,26 @@
       <c r="N133" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V133">
-        <v>91.121951219512198</v>
-      </c>
       <c r="W133">
         <v>91.121951219512198</v>
       </c>
       <c r="X133">
+        <v>91.121951219512198</v>
+      </c>
+      <c r="Y133">
         <v>95.560975609756099</v>
       </c>
-      <c r="Y133">
+      <c r="Z133">
         <v>100</v>
       </c>
-      <c r="AA133" t="s">
+      <c r="AB133" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -6242,23 +7301,26 @@
       <c r="N134" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V134">
-        <v>91.463414634146346</v>
-      </c>
       <c r="W134">
         <v>91.463414634146346</v>
       </c>
       <c r="X134">
+        <v>91.463414634146346</v>
+      </c>
+      <c r="Y134">
         <v>95.731707317073173</v>
       </c>
-      <c r="Y134">
+      <c r="Z134">
         <v>100</v>
       </c>
-      <c r="AA134" t="s">
+      <c r="AB134" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>22</v>
       </c>
@@ -6299,23 +7361,26 @@
       <c r="N135" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V135">
-        <v>57.050847457627114</v>
-      </c>
       <c r="W135">
         <v>57.050847457627114</v>
       </c>
       <c r="X135">
+        <v>57.050847457627114</v>
+      </c>
+      <c r="Y135">
         <v>78.525423728813564</v>
       </c>
-      <c r="Y135">
+      <c r="Z135">
         <v>100</v>
       </c>
-      <c r="AA135" t="s">
+      <c r="AB135" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>23</v>
       </c>
@@ -6356,23 +7421,26 @@
       <c r="N136" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V136">
-        <v>63.152542372881349</v>
-      </c>
       <c r="W136">
         <v>63.152542372881349</v>
       </c>
       <c r="X136">
+        <v>63.152542372881349</v>
+      </c>
+      <c r="Y136">
         <v>81.576271186440678</v>
       </c>
-      <c r="Y136">
+      <c r="Z136">
         <v>100</v>
       </c>
-      <c r="AA136" t="s">
+      <c r="AB136" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>24</v>
       </c>
@@ -6413,23 +7481,26 @@
       <c r="N137" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V137">
-        <v>67.576271186440664</v>
-      </c>
       <c r="W137">
         <v>67.576271186440664</v>
       </c>
       <c r="X137">
+        <v>67.576271186440664</v>
+      </c>
+      <c r="Y137">
         <v>83.788135593220332</v>
       </c>
-      <c r="Y137">
+      <c r="Z137">
         <v>100</v>
       </c>
-      <c r="AA137" t="s">
+      <c r="AB137" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>25</v>
       </c>
@@ -6470,23 +7541,26 @@
       <c r="N138" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V138">
-        <v>89.048780487804876</v>
-      </c>
       <c r="W138">
         <v>89.048780487804876</v>
       </c>
       <c r="X138">
+        <v>89.048780487804876</v>
+      </c>
+      <c r="Y138">
         <v>94.524390243902445</v>
       </c>
-      <c r="Y138">
+      <c r="Z138">
         <v>100</v>
       </c>
-      <c r="AA138" t="s">
+      <c r="AB138" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>26</v>
       </c>
@@ -6527,23 +7601,26 @@
       <c r="N139" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V139">
-        <v>96.024390243902445</v>
-      </c>
       <c r="W139">
         <v>96.024390243902445</v>
       </c>
       <c r="X139">
+        <v>96.024390243902445</v>
+      </c>
+      <c r="Y139">
         <v>98.012195121951223</v>
       </c>
-      <c r="Y139">
+      <c r="Z139">
         <v>100</v>
       </c>
-      <c r="AA139" t="s">
+      <c r="AB139" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>27</v>
       </c>
@@ -6584,23 +7661,26 @@
       <c r="N140" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V140">
-        <v>49.423728813559329</v>
-      </c>
       <c r="W140">
         <v>49.423728813559329</v>
       </c>
       <c r="X140">
+        <v>49.423728813559329</v>
+      </c>
+      <c r="Y140">
         <v>74.13559322033899</v>
       </c>
-      <c r="Y140">
+      <c r="Z140">
         <v>98.847457627118658</v>
       </c>
-      <c r="AA140" t="s">
+      <c r="AB140" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -6641,9 +7721,6 @@
       <c r="N141" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V141">
-        <v>100</v>
-      </c>
       <c r="W141">
         <v>100</v>
       </c>
@@ -6653,11 +7730,17 @@
       <c r="Y141">
         <v>100</v>
       </c>
-      <c r="AA141" t="s">
+      <c r="Z141">
+        <v>100</v>
+      </c>
+      <c r="AB141" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>29</v>
       </c>
@@ -6698,23 +7781,26 @@
       <c r="N142" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V142">
-        <v>89.853658536585371</v>
-      </c>
       <c r="W142">
         <v>89.853658536585371</v>
       </c>
       <c r="X142">
+        <v>89.853658536585371</v>
+      </c>
+      <c r="Y142">
         <v>94.926829268292693</v>
       </c>
-      <c r="Y142">
+      <c r="Z142">
         <v>100</v>
       </c>
-      <c r="AA142" t="s">
+      <c r="AB142" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>30</v>
       </c>
@@ -6755,9 +7841,6 @@
       <c r="N143" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V143">
-        <v>100</v>
-      </c>
       <c r="W143">
         <v>100</v>
       </c>
@@ -6767,11 +7850,17 @@
       <c r="Y143">
         <v>100</v>
       </c>
-      <c r="AA143" t="s">
+      <c r="Z143">
+        <v>100</v>
+      </c>
+      <c r="AB143" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>31</v>
       </c>
@@ -6812,23 +7901,26 @@
       <c r="N144" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V144">
-        <v>97.439024390243901</v>
-      </c>
       <c r="W144">
         <v>97.439024390243901</v>
       </c>
       <c r="X144">
+        <v>97.439024390243901</v>
+      </c>
+      <c r="Y144">
         <v>98.719512195121951</v>
       </c>
-      <c r="Y144">
+      <c r="Z144">
         <v>100</v>
       </c>
-      <c r="AA144" t="s">
+      <c r="AB144" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>32</v>
       </c>
@@ -6869,23 +7961,26 @@
       <c r="N145" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V145">
-        <v>51.101694915254235</v>
-      </c>
       <c r="W145">
         <v>51.101694915254235</v>
       </c>
       <c r="X145">
+        <v>51.101694915254235</v>
+      </c>
+      <c r="Y145">
         <v>75.550847457627114</v>
       </c>
-      <c r="Y145">
+      <c r="Z145">
         <v>100</v>
       </c>
-      <c r="AA145" t="s">
+      <c r="AB145" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>33</v>
       </c>
@@ -6926,23 +8021,26 @@
       <c r="N146" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V146">
-        <v>51.101694915254235</v>
-      </c>
       <c r="W146">
         <v>51.101694915254235</v>
       </c>
       <c r="X146">
+        <v>51.101694915254235</v>
+      </c>
+      <c r="Y146">
         <v>75.550847457627114</v>
       </c>
-      <c r="Y146">
+      <c r="Z146">
         <v>100</v>
       </c>
-      <c r="AA146" t="s">
+      <c r="AB146" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>34</v>
       </c>
@@ -6983,23 +8081,26 @@
       <c r="N147" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V147">
-        <v>0</v>
-      </c>
       <c r="W147">
         <v>0</v>
       </c>
       <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
         <v>10</v>
       </c>
-      <c r="Y147">
+      <c r="Z147">
         <v>20</v>
       </c>
-      <c r="AA147" t="s">
+      <c r="AB147" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>35</v>
       </c>
@@ -7040,23 +8141,26 @@
       <c r="N148" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V148">
-        <v>93.902439024390247</v>
-      </c>
       <c r="W148">
         <v>93.902439024390247</v>
       </c>
       <c r="X148">
+        <v>93.902439024390247</v>
+      </c>
+      <c r="Y148">
         <v>96.951219512195124</v>
       </c>
-      <c r="Y148">
+      <c r="Z148">
         <v>100</v>
       </c>
-      <c r="AA148" t="s">
+      <c r="AB148" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -7097,21 +8201,24 @@
       <c r="N149" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>101</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C150" s="9" t="s">
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="s">
         <v>80</v>
       </c>
       <c r="D150" s="9" t="s">
@@ -7145,14 +8252,17 @@
       <c r="N150" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -7200,23 +8310,27 @@
       <c r="S151" s="9"/>
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
-      <c r="V151" s="9">
-        <v>0</v>
-      </c>
-      <c r="W151" s="2"/>
+      <c r="V151" s="9"/>
+      <c r="W151" s="9">
+        <v>0</v>
+      </c>
       <c r="X151" s="2"/>
-      <c r="Y151" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y151" s="2"/>
+      <c r="Z151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>101</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C152" s="9" t="s">
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" t="s">
         <v>80</v>
       </c>
       <c r="D152" s="9" t="s">
@@ -7257,16 +8371,20 @@
       <c r="S152" s="9"/>
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
-      <c r="V152" s="9">
-        <v>0</v>
-      </c>
-      <c r="W152" s="2"/>
+      <c r="V152" s="9"/>
+      <c r="W152" s="9">
+        <v>0</v>
+      </c>
       <c r="X152" s="2"/>
-      <c r="Y152" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y152" s="2"/>
+      <c r="Z152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -7314,23 +8432,27 @@
       <c r="S153" s="9"/>
       <c r="T153" s="9"/>
       <c r="U153" s="9"/>
-      <c r="V153" s="9">
-        <v>0</v>
-      </c>
-      <c r="W153" s="2"/>
+      <c r="V153" s="9"/>
+      <c r="W153" s="9">
+        <v>0</v>
+      </c>
       <c r="X153" s="2"/>
-      <c r="Y153" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y153" s="2"/>
+      <c r="Z153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>101</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C154" s="9" t="s">
+      <c r="B154" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" t="s">
         <v>80</v>
       </c>
       <c r="D154" s="9" t="s">
@@ -7371,16 +8493,20 @@
       <c r="S154" s="9"/>
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
-      <c r="V154" s="9">
-        <v>0</v>
-      </c>
-      <c r="W154" s="2"/>
+      <c r="V154" s="9"/>
+      <c r="W154" s="9">
+        <v>0</v>
+      </c>
       <c r="X154" s="2"/>
-      <c r="Y154" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y154" s="2"/>
+      <c r="Z154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -7392,6 +8518,9 @@
       </c>
       <c r="D155" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="E155" t="s">
+        <v>101</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>98</v>
@@ -7425,17 +8554,21 @@
       <c r="S155" s="9"/>
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
-      <c r="V155" s="9">
-        <v>0</v>
-      </c>
-      <c r="W155" s="2"/>
+      <c r="V155" s="9"/>
+      <c r="W155" s="9">
+        <v>0</v>
+      </c>
       <c r="X155" s="2"/>
-      <c r="Y155" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA155" s="2"/>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y155" s="2"/>
+      <c r="Z155" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB155" s="2"/>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>101</v>
       </c>
@@ -7447,6 +8580,9 @@
       </c>
       <c r="D156" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="E156" t="s">
+        <v>101</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>98</v>
@@ -7480,17 +8616,21 @@
       <c r="S156" s="9"/>
       <c r="T156" s="9"/>
       <c r="U156" s="9"/>
-      <c r="V156" s="9">
-        <v>0</v>
-      </c>
-      <c r="W156" s="2"/>
+      <c r="V156" s="9"/>
+      <c r="W156" s="9">
+        <v>0</v>
+      </c>
       <c r="X156" s="2"/>
-      <c r="Y156" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA156" s="2"/>
-    </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y156" s="2"/>
+      <c r="Z156" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB156" s="2"/>
+      <c r="AC156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
@@ -7502,6 +8642,9 @@
       </c>
       <c r="D157" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="E157" t="s">
+        <v>101</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>99</v>
@@ -7535,17 +8678,21 @@
       <c r="S157" s="9"/>
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
-      <c r="V157" s="9">
-        <v>0</v>
-      </c>
-      <c r="W157" s="2"/>
+      <c r="V157" s="9"/>
+      <c r="W157" s="9">
+        <v>0</v>
+      </c>
       <c r="X157" s="2"/>
-      <c r="Y157" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA157" s="2"/>
-    </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y157" s="2"/>
+      <c r="Z157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB157" s="2"/>
+      <c r="AC157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -7557,6 +8704,9 @@
       </c>
       <c r="D158" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="E158" t="s">
+        <v>101</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>99</v>
@@ -7590,17 +8740,21 @@
       <c r="S158" s="9"/>
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
-      <c r="V158" s="9">
-        <v>0</v>
-      </c>
-      <c r="W158" s="2"/>
+      <c r="V158" s="9"/>
+      <c r="W158" s="9">
+        <v>0</v>
+      </c>
       <c r="X158" s="2"/>
-      <c r="Y158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA158" s="2"/>
-    </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y158" s="2"/>
+      <c r="Z158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB158" s="2"/>
+      <c r="AC158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -7648,20 +8802,24 @@
       <c r="S159" s="9"/>
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
-      <c r="V159" s="2">
+      <c r="V159" s="9"/>
+      <c r="W159" s="2">
         <v>1</v>
       </c>
-      <c r="W159" s="2">
+      <c r="X159" s="2">
         <v>25</v>
       </c>
-      <c r="X159" s="2">
+      <c r="Y159" s="2">
         <v>50</v>
       </c>
-      <c r="Y159" s="2">
+      <c r="Z159" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
@@ -7709,20 +8867,24 @@
       <c r="S160" s="9"/>
       <c r="T160" s="9"/>
       <c r="U160" s="9"/>
-      <c r="V160" s="2">
+      <c r="V160" s="9"/>
+      <c r="W160" s="2">
         <v>1</v>
       </c>
-      <c r="W160" s="2">
+      <c r="X160" s="2">
         <v>33.33</v>
       </c>
-      <c r="X160" s="2">
+      <c r="Y160" s="2">
         <v>66.66</v>
       </c>
-      <c r="Y160" s="2">
+      <c r="Z160" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>18</v>
       </c>
@@ -7770,20 +8932,24 @@
       <c r="S161" s="9"/>
       <c r="T161" s="9"/>
       <c r="U161" s="9"/>
-      <c r="V161" s="2">
+      <c r="V161" s="9"/>
+      <c r="W161" s="2">
         <v>1</v>
       </c>
-      <c r="W161" s="2">
+      <c r="X161" s="2">
         <v>33.33</v>
       </c>
-      <c r="X161" s="2">
+      <c r="Y161" s="2">
         <v>66.66</v>
       </c>
-      <c r="Y161" s="2">
+      <c r="Z161" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -7831,20 +8997,24 @@
       <c r="S162" s="9"/>
       <c r="T162" s="9"/>
       <c r="U162" s="9"/>
-      <c r="V162" s="2">
+      <c r="V162" s="9"/>
+      <c r="W162" s="2">
         <v>1</v>
       </c>
-      <c r="W162" s="2">
+      <c r="X162" s="2">
         <v>33.33</v>
       </c>
-      <c r="X162" s="2">
+      <c r="Y162" s="2">
         <v>66.66</v>
       </c>
-      <c r="Y162" s="2">
+      <c r="Z162" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>26</v>
       </c>
@@ -7892,20 +9062,24 @@
       <c r="S163" s="9"/>
       <c r="T163" s="9"/>
       <c r="U163" s="9"/>
-      <c r="V163" s="2">
+      <c r="V163" s="9"/>
+      <c r="W163" s="2">
         <v>1</v>
       </c>
-      <c r="W163" s="2">
+      <c r="X163" s="2">
         <v>33.33</v>
       </c>
-      <c r="X163" s="2">
+      <c r="Y163" s="2">
         <v>66.66</v>
       </c>
-      <c r="Y163" s="2">
+      <c r="Z163" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>28</v>
       </c>
@@ -7953,20 +9127,24 @@
       <c r="S164" s="9"/>
       <c r="T164" s="9"/>
       <c r="U164" s="9"/>
-      <c r="V164" s="2">
+      <c r="V164" s="9"/>
+      <c r="W164" s="2">
         <v>1</v>
       </c>
-      <c r="W164" s="2">
+      <c r="X164" s="2">
         <v>33.33</v>
       </c>
-      <c r="X164" s="2">
+      <c r="Y164" s="2">
         <v>66.66</v>
       </c>
-      <c r="Y164" s="2">
+      <c r="Z164" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
@@ -8014,20 +9192,24 @@
       <c r="S165" s="9"/>
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
-      <c r="V165" s="2">
+      <c r="V165" s="9"/>
+      <c r="W165" s="2">
         <v>1</v>
       </c>
-      <c r="W165" s="2">
+      <c r="X165" s="2">
         <v>33.33</v>
       </c>
-      <c r="X165" s="2">
+      <c r="Y165" s="2">
         <v>66.66</v>
       </c>
-      <c r="Y165" s="2">
+      <c r="Z165" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -8075,20 +9257,24 @@
       <c r="S166" s="9"/>
       <c r="T166" s="9"/>
       <c r="U166" s="9"/>
-      <c r="V166" s="2">
+      <c r="V166" s="9"/>
+      <c r="W166" s="2">
         <v>1</v>
       </c>
-      <c r="W166" s="2">
+      <c r="X166" s="2">
         <v>25</v>
       </c>
-      <c r="X166" s="2">
+      <c r="Y166" s="2">
         <v>50</v>
       </c>
-      <c r="Y166" s="2">
+      <c r="Z166" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -8136,20 +9322,24 @@
       <c r="S167" s="9"/>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
-      <c r="V167" s="2">
-        <v>0</v>
-      </c>
+      <c r="V167" s="9"/>
       <c r="W167" s="2">
+        <v>0</v>
+      </c>
+      <c r="X167" s="2">
         <v>1</v>
       </c>
-      <c r="X167" s="2">
+      <c r="Y167" s="2">
         <v>5</v>
       </c>
-      <c r="Y167" s="2">
+      <c r="Z167" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>101</v>
       </c>
@@ -8197,20 +9387,24 @@
       <c r="S168" s="9"/>
       <c r="T168" s="9"/>
       <c r="U168" s="9"/>
-      <c r="V168" s="2">
-        <v>0</v>
-      </c>
+      <c r="V168" s="9"/>
       <c r="W168" s="2">
+        <v>0</v>
+      </c>
+      <c r="X168" s="2">
         <v>1</v>
       </c>
-      <c r="X168" s="2">
+      <c r="Y168" s="2">
         <v>5</v>
       </c>
-      <c r="Y168" s="2">
+      <c r="Z168" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
@@ -8258,21 +9452,25 @@
       <c r="S169" s="9"/>
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
-      <c r="V169" s="2">
-        <v>0</v>
-      </c>
+      <c r="V169" s="9"/>
       <c r="W169" s="2">
+        <v>0</v>
+      </c>
+      <c r="X169" s="2">
         <v>2</v>
       </c>
-      <c r="X169" s="2">
-        <f>(Y169+W169)/2</f>
+      <c r="Y169" s="2">
+        <f>(Z169+X169)/2</f>
         <v>34.33</v>
       </c>
-      <c r="Y169" s="2">
+      <c r="Z169" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>3</v>
       </c>
@@ -8320,21 +9518,25 @@
       <c r="S170" s="9"/>
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
-      <c r="V170" s="2">
+      <c r="V170" s="9"/>
+      <c r="W170" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W170" s="2">
+      <c r="X170" s="2">
         <v>20</v>
       </c>
-      <c r="X170" s="2">
-        <f t="shared" ref="X170:X175" si="2">(Y170+W170)/2</f>
+      <c r="Y170" s="2">
+        <f t="shared" ref="Y170:Y175" si="4">(Z170+X170)/2</f>
         <v>43.33</v>
       </c>
-      <c r="Y170" s="2">
+      <c r="Z170" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>18</v>
       </c>
@@ -8382,21 +9584,25 @@
       <c r="S171" s="9"/>
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
-      <c r="V171" s="2">
+      <c r="V171" s="9"/>
+      <c r="W171" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W171" s="2">
+      <c r="X171" s="2">
         <v>20</v>
       </c>
-      <c r="X171" s="2">
-        <f t="shared" si="2"/>
+      <c r="Y171" s="2">
+        <f t="shared" si="4"/>
         <v>43.33</v>
       </c>
-      <c r="Y171" s="2">
+      <c r="Z171" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -8444,21 +9650,25 @@
       <c r="S172" s="9"/>
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
-      <c r="V172" s="2">
+      <c r="V172" s="9"/>
+      <c r="W172" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W172" s="2">
+      <c r="X172" s="2">
         <v>20</v>
       </c>
-      <c r="X172" s="2">
-        <f t="shared" si="2"/>
+      <c r="Y172" s="2">
+        <f t="shared" si="4"/>
         <v>43.33</v>
       </c>
-      <c r="Y172" s="2">
+      <c r="Z172" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -8506,21 +9716,25 @@
       <c r="S173" s="9"/>
       <c r="T173" s="9"/>
       <c r="U173" s="9"/>
-      <c r="V173" s="2">
+      <c r="V173" s="9"/>
+      <c r="W173" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W173" s="2">
+      <c r="X173" s="2">
         <v>20</v>
       </c>
-      <c r="X173" s="2">
-        <f t="shared" si="2"/>
+      <c r="Y173" s="2">
+        <f t="shared" si="4"/>
         <v>43.33</v>
       </c>
-      <c r="Y173" s="2">
+      <c r="Z173" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>28</v>
       </c>
@@ -8568,21 +9782,25 @@
       <c r="S174" s="9"/>
       <c r="T174" s="9"/>
       <c r="U174" s="9"/>
-      <c r="V174" s="2">
+      <c r="V174" s="9"/>
+      <c r="W174" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W174" s="2">
+      <c r="X174" s="2">
         <v>20</v>
       </c>
-      <c r="X174" s="2">
-        <f t="shared" si="2"/>
+      <c r="Y174" s="2">
+        <f t="shared" si="4"/>
         <v>43.33</v>
       </c>
-      <c r="Y174" s="2">
+      <c r="Z174" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
@@ -8630,21 +9848,25 @@
       <c r="S175" s="9"/>
       <c r="T175" s="9"/>
       <c r="U175" s="9"/>
-      <c r="V175" s="2">
+      <c r="V175" s="9"/>
+      <c r="W175" s="2">
         <v>0.17125058771192414</v>
       </c>
-      <c r="W175" s="2">
+      <c r="X175" s="2">
         <v>20</v>
       </c>
-      <c r="X175" s="2">
-        <f t="shared" si="2"/>
+      <c r="Y175" s="2">
+        <f t="shared" si="4"/>
         <v>43.33</v>
       </c>
-      <c r="Y175" s="2">
+      <c r="Z175" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>101</v>
       </c>
@@ -8692,21 +9914,25 @@
       <c r="S176" s="9"/>
       <c r="T176" s="9"/>
       <c r="U176" s="9"/>
-      <c r="V176" s="2">
-        <v>0</v>
-      </c>
+      <c r="V176" s="9"/>
       <c r="W176" s="2">
+        <v>0</v>
+      </c>
+      <c r="X176" s="2">
         <v>2</v>
       </c>
-      <c r="X176" s="2">
-        <f>(Y176+W176)/2</f>
+      <c r="Y176" s="2">
+        <f>(Z176+X176)/2</f>
         <v>34.33</v>
       </c>
-      <c r="Y176" s="2">
+      <c r="Z176" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
@@ -8754,20 +9980,24 @@
       <c r="S177" s="9"/>
       <c r="T177" s="9"/>
       <c r="U177" s="9"/>
-      <c r="V177" s="2">
-        <v>0</v>
-      </c>
+      <c r="V177" s="9"/>
       <c r="W177" s="2">
         <v>0</v>
       </c>
       <c r="X177" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="2">
         <v>1</v>
       </c>
-      <c r="Y177" s="2">
+      <c r="Z177" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>3</v>
       </c>
@@ -8815,20 +10045,24 @@
       <c r="S178" s="9"/>
       <c r="T178" s="9"/>
       <c r="U178" s="9"/>
-      <c r="V178" s="2">
-        <v>0</v>
-      </c>
+      <c r="V178" s="9"/>
       <c r="W178" s="2">
+        <v>0</v>
+      </c>
+      <c r="X178" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X178" s="2">
+      <c r="Y178" s="2">
         <v>15</v>
       </c>
-      <c r="Y178" s="2">
+      <c r="Z178" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>18</v>
       </c>
@@ -8876,20 +10110,24 @@
       <c r="S179" s="9"/>
       <c r="T179" s="9"/>
       <c r="U179" s="9"/>
-      <c r="V179" s="2">
-        <v>0</v>
-      </c>
+      <c r="V179" s="9"/>
       <c r="W179" s="2">
+        <v>0</v>
+      </c>
+      <c r="X179" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X179" s="2">
+      <c r="Y179" s="2">
         <v>15</v>
       </c>
-      <c r="Y179" s="2">
+      <c r="Z179" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>25</v>
       </c>
@@ -8937,20 +10175,24 @@
       <c r="S180" s="9"/>
       <c r="T180" s="9"/>
       <c r="U180" s="9"/>
-      <c r="V180" s="2">
-        <v>0</v>
-      </c>
+      <c r="V180" s="9"/>
       <c r="W180" s="2">
+        <v>0</v>
+      </c>
+      <c r="X180" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X180" s="2">
+      <c r="Y180" s="2">
         <v>15</v>
       </c>
-      <c r="Y180" s="2">
+      <c r="Z180" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>26</v>
       </c>
@@ -8998,20 +10240,24 @@
       <c r="S181" s="9"/>
       <c r="T181" s="9"/>
       <c r="U181" s="9"/>
-      <c r="V181" s="2">
-        <v>0</v>
-      </c>
+      <c r="V181" s="9"/>
       <c r="W181" s="2">
+        <v>0</v>
+      </c>
+      <c r="X181" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X181" s="2">
+      <c r="Y181" s="2">
         <v>15</v>
       </c>
-      <c r="Y181" s="2">
+      <c r="Z181" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>28</v>
       </c>
@@ -9059,20 +10305,24 @@
       <c r="S182" s="9"/>
       <c r="T182" s="9"/>
       <c r="U182" s="9"/>
-      <c r="V182" s="2">
-        <v>0</v>
-      </c>
+      <c r="V182" s="9"/>
       <c r="W182" s="2">
+        <v>0</v>
+      </c>
+      <c r="X182" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X182" s="2">
+      <c r="Y182" s="2">
         <v>15</v>
       </c>
-      <c r="Y182" s="2">
+      <c r="Z182" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>29</v>
       </c>
@@ -9120,20 +10370,24 @@
       <c r="S183" s="9"/>
       <c r="T183" s="9"/>
       <c r="U183" s="9"/>
-      <c r="V183" s="2">
-        <v>0</v>
-      </c>
+      <c r="V183" s="9"/>
       <c r="W183" s="2">
+        <v>0</v>
+      </c>
+      <c r="X183" s="2">
         <v>5.5224672087450521E-2</v>
       </c>
-      <c r="X183" s="2">
+      <c r="Y183" s="2">
         <v>15</v>
       </c>
-      <c r="Y183" s="2">
+      <c r="Z183" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -9181,20 +10435,24 @@
       <c r="S184" s="9"/>
       <c r="T184" s="9"/>
       <c r="U184" s="9"/>
-      <c r="V184" s="2">
-        <v>0</v>
-      </c>
+      <c r="V184" s="9"/>
       <c r="W184" s="2">
         <v>0</v>
       </c>
       <c r="X184" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y184" s="2">
         <v>1</v>
       </c>
-      <c r="Y184" s="2">
+      <c r="Z184" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -9242,23 +10500,27 @@
       <c r="S185" s="9"/>
       <c r="T185" s="9"/>
       <c r="U185" s="9"/>
-      <c r="V185" s="9">
+      <c r="V185" s="9"/>
+      <c r="W185" s="9">
         <v>97.073170731707322</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>97.073170731707322</v>
       </c>
-      <c r="X185">
+      <c r="Y185">
         <v>98.536585365853654</v>
       </c>
-      <c r="Y185">
+      <c r="Z185">
         <v>100</v>
       </c>
-      <c r="AA185" t="s">
+      <c r="AB185" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
@@ -9306,23 +10568,27 @@
       <c r="S186" s="9"/>
       <c r="T186" s="9"/>
       <c r="U186" s="9"/>
-      <c r="V186" s="9">
+      <c r="V186" s="9"/>
+      <c r="W186" s="9">
         <v>92.951219512195124</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>92.951219512195124</v>
       </c>
-      <c r="X186">
+      <c r="Y186">
         <v>96.475609756097555</v>
       </c>
-      <c r="Y186">
+      <c r="Z186">
         <v>100</v>
       </c>
-      <c r="AA186" t="s">
+      <c r="AB186" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
@@ -9370,23 +10636,27 @@
       <c r="S187" s="9"/>
       <c r="T187" s="9"/>
       <c r="U187" s="9"/>
-      <c r="V187" s="9">
+      <c r="V187" s="9"/>
+      <c r="W187" s="9">
         <v>51.864406779661017</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>51.864406779661017</v>
       </c>
-      <c r="X187">
+      <c r="Y187">
         <v>75.932203389830505</v>
       </c>
-      <c r="Y187">
+      <c r="Z187">
         <v>100</v>
       </c>
-      <c r="AA187" t="s">
+      <c r="AB187" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>3</v>
       </c>
@@ -9434,23 +10704,27 @@
       <c r="S188" s="9"/>
       <c r="T188" s="9"/>
       <c r="U188" s="9"/>
-      <c r="V188" s="9">
+      <c r="V188" s="9"/>
+      <c r="W188" s="9">
         <v>44.389830508474567</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>44.389830508474567</v>
       </c>
-      <c r="X188">
+      <c r="Y188">
         <v>66.584745762711847</v>
       </c>
-      <c r="Y188">
+      <c r="Z188">
         <v>88.779661016949134</v>
       </c>
-      <c r="AA188" t="s">
+      <c r="AB188" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>4</v>
       </c>
@@ -9498,23 +10772,27 @@
       <c r="S189" s="9"/>
       <c r="T189" s="9"/>
       <c r="U189" s="9"/>
-      <c r="V189" s="9">
+      <c r="V189" s="9"/>
+      <c r="W189" s="9">
         <v>90.487804878048777</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>90.487804878048777</v>
       </c>
-      <c r="X189">
+      <c r="Y189">
         <v>95.243902439024396</v>
       </c>
-      <c r="Y189">
+      <c r="Z189">
         <v>100</v>
       </c>
-      <c r="AA189" t="s">
+      <c r="AB189" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>5</v>
       </c>
@@ -9562,23 +10840,27 @@
       <c r="S190" s="9"/>
       <c r="T190" s="9"/>
       <c r="U190" s="9"/>
-      <c r="V190" s="9">
+      <c r="V190" s="9"/>
+      <c r="W190" s="9">
         <v>25.474576271186443</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>25.474576271186443</v>
       </c>
-      <c r="X190">
+      <c r="Y190">
         <v>38.211864406779668</v>
       </c>
-      <c r="Y190">
+      <c r="Z190">
         <v>50.949152542372886</v>
       </c>
-      <c r="AA190" t="s">
+      <c r="AB190" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -9626,23 +10908,27 @@
       <c r="S191" s="9"/>
       <c r="T191" s="9"/>
       <c r="U191" s="9"/>
-      <c r="V191" s="9">
-        <v>0</v>
-      </c>
-      <c r="W191">
+      <c r="V191" s="9"/>
+      <c r="W191" s="9">
         <v>0</v>
       </c>
       <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
         <v>50</v>
       </c>
-      <c r="Y191">
+      <c r="Z191">
         <v>100</v>
       </c>
-      <c r="AA191" t="s">
+      <c r="AB191" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>7</v>
       </c>
@@ -9690,23 +10976,27 @@
       <c r="S192" s="9"/>
       <c r="T192" s="9"/>
       <c r="U192" s="9"/>
-      <c r="V192" s="9">
+      <c r="V192" s="9"/>
+      <c r="W192" s="9">
         <v>35.694915254237294</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>35.694915254237294</v>
       </c>
-      <c r="X192">
+      <c r="Y192">
         <v>53.542372881355945</v>
       </c>
-      <c r="Y192">
+      <c r="Z192">
         <v>71.389830508474589</v>
       </c>
-      <c r="AA192" t="s">
+      <c r="AB192" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>8</v>
       </c>
@@ -9754,23 +11044,27 @@
       <c r="S193" s="9"/>
       <c r="T193" s="9"/>
       <c r="U193" s="9"/>
-      <c r="V193" s="9">
+      <c r="V193" s="9"/>
+      <c r="W193" s="9">
         <v>91.219512195121951</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>91.219512195121951</v>
       </c>
-      <c r="X193">
+      <c r="Y193">
         <v>95.609756097560975</v>
       </c>
-      <c r="Y193">
+      <c r="Z193">
         <v>100</v>
       </c>
-      <c r="AA193" t="s">
+      <c r="AB193" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>9</v>
       </c>
@@ -9818,23 +11112,27 @@
       <c r="S194" s="9"/>
       <c r="T194" s="9"/>
       <c r="U194" s="9"/>
-      <c r="V194" s="9">
+      <c r="V194" s="9"/>
+      <c r="W194" s="9">
         <v>90.975609756097555</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>90.975609756097555</v>
       </c>
-      <c r="X194">
+      <c r="Y194">
         <v>95.487804878048777</v>
       </c>
-      <c r="Y194">
+      <c r="Z194">
         <v>100</v>
       </c>
-      <c r="AA194" t="s">
+      <c r="AB194" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>10</v>
       </c>
@@ -9882,23 +11180,27 @@
       <c r="S195" s="9"/>
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
-      <c r="V195" s="9">
+      <c r="V195" s="9"/>
+      <c r="W195" s="9">
         <v>56.898305084745758</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>56.898305084745758</v>
       </c>
-      <c r="X195">
+      <c r="Y195">
         <v>78.449152542372872</v>
       </c>
-      <c r="Y195">
+      <c r="Z195">
         <v>100</v>
       </c>
-      <c r="AA195" t="s">
+      <c r="AB195" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
@@ -9946,23 +11248,27 @@
       <c r="S196" s="9"/>
       <c r="T196" s="9"/>
       <c r="U196" s="9"/>
-      <c r="V196" s="9">
+      <c r="V196" s="9"/>
+      <c r="W196" s="9">
         <v>92.682926829268297</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>92.682926829268297</v>
       </c>
-      <c r="X196">
+      <c r="Y196">
         <v>96.341463414634148</v>
       </c>
-      <c r="Y196">
+      <c r="Z196">
         <v>100</v>
       </c>
-      <c r="AA196" t="s">
+      <c r="AB196" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>12</v>
       </c>
@@ -10010,10 +11316,8 @@
       <c r="S197" s="9"/>
       <c r="T197" s="9"/>
       <c r="U197" s="9"/>
-      <c r="V197" s="9">
-        <v>100</v>
-      </c>
-      <c r="W197">
+      <c r="V197" s="9"/>
+      <c r="W197" s="9">
         <v>100</v>
       </c>
       <c r="X197">
@@ -10022,11 +11326,17 @@
       <c r="Y197">
         <v>100</v>
       </c>
-      <c r="AA197" t="s">
+      <c r="Z197">
+        <v>100</v>
+      </c>
+      <c r="AB197" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>13</v>
       </c>
@@ -10074,23 +11384,27 @@
       <c r="S198" s="9"/>
       <c r="T198" s="9"/>
       <c r="U198" s="9"/>
-      <c r="V198" s="9">
+      <c r="V198" s="9"/>
+      <c r="W198" s="9">
         <v>20.440677966101703</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>20.440677966101703</v>
       </c>
-      <c r="X198">
+      <c r="Y198">
         <v>30.661016949152554</v>
       </c>
-      <c r="Y198">
+      <c r="Z198">
         <v>40.881355932203405</v>
       </c>
-      <c r="AA198" t="s">
+      <c r="AB198" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -10138,23 +11452,27 @@
       <c r="S199" s="9"/>
       <c r="T199" s="9"/>
       <c r="U199" s="9"/>
-      <c r="V199" s="9">
+      <c r="V199" s="9"/>
+      <c r="W199" s="9">
         <v>9.9152542372881349</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>9.9152542372881349</v>
       </c>
-      <c r="X199">
+      <c r="Y199">
         <v>14.872881355932202</v>
       </c>
-      <c r="Y199">
+      <c r="Z199">
         <v>19.83050847457627</v>
       </c>
-      <c r="AA199" t="s">
+      <c r="AB199" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>15</v>
       </c>
@@ -10202,23 +11520,27 @@
       <c r="S200" s="9"/>
       <c r="T200" s="9"/>
       <c r="U200" s="9"/>
-      <c r="V200" s="9">
+      <c r="V200" s="9"/>
+      <c r="W200" s="9">
         <v>97.804878048780495</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>97.804878048780495</v>
       </c>
-      <c r="X200">
+      <c r="Y200">
         <v>98.902439024390247</v>
       </c>
-      <c r="Y200">
+      <c r="Z200">
         <v>100</v>
       </c>
-      <c r="AA200" t="s">
+      <c r="AB200" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -10266,23 +11588,27 @@
       <c r="S201" s="9"/>
       <c r="T201" s="9"/>
       <c r="U201" s="9"/>
-      <c r="V201" s="9">
+      <c r="V201" s="9"/>
+      <c r="W201" s="9">
         <v>59.49152542372881</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>59.49152542372881</v>
       </c>
-      <c r="X201">
+      <c r="Y201">
         <v>79.745762711864401</v>
       </c>
-      <c r="Y201">
+      <c r="Z201">
         <v>100</v>
       </c>
-      <c r="AA201" t="s">
+      <c r="AB201" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>17</v>
       </c>
@@ -10330,10 +11656,8 @@
       <c r="S202" s="9"/>
       <c r="T202" s="9"/>
       <c r="U202" s="9"/>
-      <c r="V202" s="9">
-        <v>100</v>
-      </c>
-      <c r="W202">
+      <c r="V202" s="9"/>
+      <c r="W202" s="9">
         <v>100</v>
       </c>
       <c r="X202">
@@ -10342,11 +11666,17 @@
       <c r="Y202">
         <v>100</v>
       </c>
-      <c r="AA202" t="s">
+      <c r="Z202">
+        <v>100</v>
+      </c>
+      <c r="AB202" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>18</v>
       </c>
@@ -10394,23 +11724,27 @@
       <c r="S203" s="9"/>
       <c r="T203" s="9"/>
       <c r="U203" s="9"/>
-      <c r="V203" s="9">
+      <c r="V203" s="9"/>
+      <c r="W203" s="9">
         <v>94.146341463414629</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>94.146341463414629</v>
       </c>
-      <c r="X203">
+      <c r="Y203">
         <v>97.073170731707307</v>
       </c>
-      <c r="Y203">
+      <c r="Z203">
         <v>100</v>
       </c>
-      <c r="AA203" t="s">
+      <c r="AB203" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>19</v>
       </c>
@@ -10458,23 +11792,27 @@
       <c r="S204" s="9"/>
       <c r="T204" s="9"/>
       <c r="U204" s="9"/>
-      <c r="V204" s="9">
+      <c r="V204" s="9"/>
+      <c r="W204" s="9">
         <v>93.41463414634147</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>93.41463414634147</v>
       </c>
-      <c r="X204">
+      <c r="Y204">
         <v>96.707317073170742</v>
       </c>
-      <c r="Y204">
+      <c r="Z204">
         <v>100</v>
       </c>
-      <c r="AA204" t="s">
+      <c r="AB204" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>20</v>
       </c>
@@ -10522,23 +11860,27 @@
       <c r="S205" s="9"/>
       <c r="T205" s="9"/>
       <c r="U205" s="9"/>
-      <c r="V205" s="9">
+      <c r="V205" s="9"/>
+      <c r="W205" s="9">
         <v>91.219512195121951</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>91.219512195121951</v>
       </c>
-      <c r="X205">
+      <c r="Y205">
         <v>95.609756097560975</v>
       </c>
-      <c r="Y205">
+      <c r="Z205">
         <v>100</v>
       </c>
-      <c r="AA205" t="s">
+      <c r="AB205" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
@@ -10586,23 +11928,27 @@
       <c r="S206" s="9"/>
       <c r="T206" s="9"/>
       <c r="U206" s="9"/>
-      <c r="V206" s="9">
+      <c r="V206" s="9"/>
+      <c r="W206" s="9">
         <v>91.463414634146346</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>91.463414634146346</v>
       </c>
-      <c r="X206">
+      <c r="Y206">
         <v>95.731707317073173</v>
       </c>
-      <c r="Y206">
+      <c r="Z206">
         <v>100</v>
       </c>
-      <c r="AA206" t="s">
+      <c r="AB206" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>22</v>
       </c>
@@ -10650,23 +11996,27 @@
       <c r="S207" s="9"/>
       <c r="T207" s="9"/>
       <c r="U207" s="9"/>
-      <c r="V207" s="9">
+      <c r="V207" s="9"/>
+      <c r="W207" s="9">
         <v>57.050847457627114</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>57.050847457627114</v>
       </c>
-      <c r="X207">
+      <c r="Y207">
         <v>78.525423728813564</v>
       </c>
-      <c r="Y207">
+      <c r="Z207">
         <v>100</v>
       </c>
-      <c r="AA207" t="s">
+      <c r="AB207" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>23</v>
       </c>
@@ -10714,23 +12064,27 @@
       <c r="S208" s="9"/>
       <c r="T208" s="9"/>
       <c r="U208" s="9"/>
-      <c r="V208" s="9">
+      <c r="V208" s="9"/>
+      <c r="W208" s="9">
         <v>63.152542372881349</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>63.152542372881349</v>
       </c>
-      <c r="X208">
+      <c r="Y208">
         <v>81.576271186440678</v>
       </c>
-      <c r="Y208">
+      <c r="Z208">
         <v>100</v>
       </c>
-      <c r="AA208" t="s">
+      <c r="AB208" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>24</v>
       </c>
@@ -10778,23 +12132,27 @@
       <c r="S209" s="9"/>
       <c r="T209" s="9"/>
       <c r="U209" s="9"/>
-      <c r="V209" s="9">
+      <c r="V209" s="9"/>
+      <c r="W209" s="9">
         <v>67.576271186440664</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>67.576271186440664</v>
       </c>
-      <c r="X209">
+      <c r="Y209">
         <v>83.788135593220332</v>
       </c>
-      <c r="Y209">
+      <c r="Z209">
         <v>100</v>
       </c>
-      <c r="AA209" t="s">
+      <c r="AB209" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>25</v>
       </c>
@@ -10842,23 +12200,27 @@
       <c r="S210" s="9"/>
       <c r="T210" s="9"/>
       <c r="U210" s="9"/>
-      <c r="V210" s="9">
+      <c r="V210" s="9"/>
+      <c r="W210" s="9">
         <v>89.048780487804876</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>89.048780487804876</v>
       </c>
-      <c r="X210">
+      <c r="Y210">
         <v>94.524390243902445</v>
       </c>
-      <c r="Y210">
+      <c r="Z210">
         <v>100</v>
       </c>
-      <c r="AA210" t="s">
+      <c r="AB210" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>26</v>
       </c>
@@ -10906,23 +12268,27 @@
       <c r="S211" s="9"/>
       <c r="T211" s="9"/>
       <c r="U211" s="9"/>
-      <c r="V211" s="9">
+      <c r="V211" s="9"/>
+      <c r="W211" s="9">
         <v>93.902439024390247</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>93.902439024390247</v>
       </c>
-      <c r="X211">
+      <c r="Y211">
         <v>96.951219512195124</v>
       </c>
-      <c r="Y211">
+      <c r="Z211">
         <v>100</v>
       </c>
-      <c r="AA211" t="s">
+      <c r="AB211" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>27</v>
       </c>
@@ -10970,23 +12336,27 @@
       <c r="S212" s="9"/>
       <c r="T212" s="9"/>
       <c r="U212" s="9"/>
-      <c r="V212" s="9">
+      <c r="V212" s="9"/>
+      <c r="W212" s="9">
         <v>49.423728813559329</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>49.423728813559329</v>
       </c>
-      <c r="X212">
+      <c r="Y212">
         <v>74.13559322033899</v>
       </c>
-      <c r="Y212">
+      <c r="Z212">
         <v>98.847457627118658</v>
       </c>
-      <c r="AA212" t="s">
+      <c r="AB212" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>28</v>
       </c>
@@ -11034,10 +12404,8 @@
       <c r="S213" s="9"/>
       <c r="T213" s="9"/>
       <c r="U213" s="9"/>
-      <c r="V213" s="9">
-        <v>100</v>
-      </c>
-      <c r="W213">
+      <c r="V213" s="9"/>
+      <c r="W213" s="9">
         <v>100</v>
       </c>
       <c r="X213">
@@ -11046,11 +12414,17 @@
       <c r="Y213">
         <v>100</v>
       </c>
-      <c r="AA213" t="s">
+      <c r="Z213">
+        <v>100</v>
+      </c>
+      <c r="AB213" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>29</v>
       </c>
@@ -11098,23 +12472,27 @@
       <c r="S214" s="9"/>
       <c r="T214" s="9"/>
       <c r="U214" s="9"/>
-      <c r="V214" s="9">
+      <c r="V214" s="9"/>
+      <c r="W214" s="9">
         <v>89.853658536585371</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>89.853658536585371</v>
       </c>
-      <c r="X214">
+      <c r="Y214">
         <v>94.926829268292693</v>
       </c>
-      <c r="Y214">
+      <c r="Z214">
         <v>100</v>
       </c>
-      <c r="AA214" t="s">
+      <c r="AB214" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>30</v>
       </c>
@@ -11162,10 +12540,8 @@
       <c r="S215" s="9"/>
       <c r="T215" s="9"/>
       <c r="U215" s="9"/>
-      <c r="V215" s="9">
-        <v>100</v>
-      </c>
-      <c r="W215">
+      <c r="V215" s="9"/>
+      <c r="W215" s="9">
         <v>100</v>
       </c>
       <c r="X215">
@@ -11174,11 +12550,17 @@
       <c r="Y215">
         <v>100</v>
       </c>
-      <c r="AA215" t="s">
+      <c r="Z215">
+        <v>100</v>
+      </c>
+      <c r="AB215" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>31</v>
       </c>
@@ -11226,23 +12608,27 @@
       <c r="S216" s="9"/>
       <c r="T216" s="9"/>
       <c r="U216" s="9"/>
-      <c r="V216" s="9">
+      <c r="V216" s="9"/>
+      <c r="W216" s="9">
         <v>97.439024390243901</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>97.439024390243901</v>
       </c>
-      <c r="X216">
+      <c r="Y216">
         <v>98.719512195121951</v>
       </c>
-      <c r="Y216">
+      <c r="Z216">
         <v>100</v>
       </c>
-      <c r="AA216" t="s">
+      <c r="AB216" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>32</v>
       </c>
@@ -11290,23 +12676,27 @@
       <c r="S217" s="9"/>
       <c r="T217" s="9"/>
       <c r="U217" s="9"/>
-      <c r="V217" s="9">
+      <c r="V217" s="9"/>
+      <c r="W217" s="9">
         <v>51.101694915254235</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>51.101694915254235</v>
       </c>
-      <c r="X217">
+      <c r="Y217">
         <v>75.550847457627114</v>
       </c>
-      <c r="Y217">
+      <c r="Z217">
         <v>100</v>
       </c>
-      <c r="AA217" t="s">
+      <c r="AB217" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>33</v>
       </c>
@@ -11354,23 +12744,27 @@
       <c r="S218" s="9"/>
       <c r="T218" s="9"/>
       <c r="U218" s="9"/>
-      <c r="V218" s="9">
+      <c r="V218" s="9"/>
+      <c r="W218" s="9">
         <v>51.101694915254235</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>51.101694915254235</v>
       </c>
-      <c r="X218">
+      <c r="Y218">
         <v>75.550847457627114</v>
       </c>
-      <c r="Y218">
+      <c r="Z218">
         <v>100</v>
       </c>
-      <c r="AA218" t="s">
+      <c r="AB218" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>34</v>
       </c>
@@ -11418,23 +12812,27 @@
       <c r="S219" s="9"/>
       <c r="T219" s="9"/>
       <c r="U219" s="9"/>
-      <c r="V219" s="9">
-        <v>0</v>
-      </c>
-      <c r="W219">
+      <c r="V219" s="9"/>
+      <c r="W219" s="9">
         <v>0</v>
       </c>
       <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
         <v>10</v>
       </c>
-      <c r="Y219">
+      <c r="Z219">
         <v>20</v>
       </c>
-      <c r="AA219" t="s">
+      <c r="AB219" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>35</v>
       </c>
@@ -11482,23 +12880,27 @@
       <c r="S220" s="9"/>
       <c r="T220" s="9"/>
       <c r="U220" s="9"/>
-      <c r="V220" s="9">
+      <c r="V220" s="9"/>
+      <c r="W220" s="9">
         <v>93.902439024390247</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>93.902439024390247</v>
       </c>
-      <c r="X220">
+      <c r="Y220">
         <v>96.951219512195124</v>
       </c>
-      <c r="Y220">
+      <c r="Z220">
         <v>100</v>
       </c>
-      <c r="AA220" t="s">
+      <c r="AB220" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>0</v>
       </c>
@@ -11546,16 +12948,20 @@
       <c r="S221" s="9"/>
       <c r="T221" s="9"/>
       <c r="U221" s="9"/>
-      <c r="V221" s="9">
-        <v>0</v>
-      </c>
-      <c r="W221" s="2"/>
+      <c r="V221" s="9"/>
+      <c r="W221" s="9">
+        <v>0</v>
+      </c>
       <c r="X221" s="2"/>
-      <c r="Y221" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y221" s="2"/>
+      <c r="Z221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>101</v>
       </c>
@@ -11603,16 +13009,20 @@
       <c r="S222" s="9"/>
       <c r="T222" s="9"/>
       <c r="U222" s="9"/>
-      <c r="V222" s="9">
-        <v>0</v>
-      </c>
-      <c r="W222" s="2"/>
+      <c r="V222" s="9"/>
+      <c r="W222" s="9">
+        <v>0</v>
+      </c>
       <c r="X222" s="2"/>
-      <c r="Y222" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y222" s="2"/>
+      <c r="Z222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>0</v>
       </c>
@@ -11624,6 +13034,9 @@
       </c>
       <c r="D223" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="E223" t="s">
+        <v>101</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>98</v>
@@ -11657,16 +13070,20 @@
       <c r="S223" s="9"/>
       <c r="T223" s="9"/>
       <c r="U223" s="9"/>
-      <c r="V223" s="9">
-        <v>0</v>
-      </c>
-      <c r="W223" s="2"/>
+      <c r="V223" s="9"/>
+      <c r="W223" s="9">
+        <v>0</v>
+      </c>
       <c r="X223" s="2"/>
-      <c r="Y223" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y223" s="2"/>
+      <c r="Z223" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>101</v>
       </c>
@@ -11678,6 +13095,9 @@
       </c>
       <c r="D224" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="E224" t="s">
+        <v>101</v>
       </c>
       <c r="F224" s="9" t="s">
         <v>98</v>
@@ -11711,16 +13131,20 @@
       <c r="S224" s="9"/>
       <c r="T224" s="9"/>
       <c r="U224" s="9"/>
-      <c r="V224" s="9">
-        <v>0</v>
-      </c>
-      <c r="W224" s="2"/>
+      <c r="V224" s="9"/>
+      <c r="W224" s="9">
+        <v>0</v>
+      </c>
       <c r="X224" s="2"/>
-      <c r="Y224" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y224" s="2"/>
+      <c r="Z224" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>0</v>
       </c>
@@ -11732,6 +13156,9 @@
       </c>
       <c r="D225" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="E225" t="s">
+        <v>101</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>99</v>
@@ -11765,16 +13192,20 @@
       <c r="S225" s="9"/>
       <c r="T225" s="9"/>
       <c r="U225" s="9"/>
-      <c r="V225" s="9">
-        <v>0</v>
-      </c>
-      <c r="W225" s="2"/>
+      <c r="V225" s="9"/>
+      <c r="W225" s="9">
+        <v>0</v>
+      </c>
       <c r="X225" s="2"/>
-      <c r="Y225" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y225" s="2"/>
+      <c r="Z225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>101</v>
       </c>
@@ -11786,6 +13217,9 @@
       </c>
       <c r="D226" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="E226" t="s">
+        <v>101</v>
       </c>
       <c r="F226" s="9" t="s">
         <v>99</v>
@@ -11819,16 +13253,20 @@
       <c r="S226" s="9"/>
       <c r="T226" s="9"/>
       <c r="U226" s="9"/>
-      <c r="V226" s="9">
-        <v>0</v>
-      </c>
-      <c r="W226" s="2"/>
+      <c r="V226" s="9"/>
+      <c r="W226" s="9">
+        <v>0</v>
+      </c>
       <c r="X226" s="2"/>
-      <c r="Y226" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y226" s="2"/>
+      <c r="Z226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A227" s="19" t="s">
         <v>101</v>
       </c>
@@ -11854,7 +13292,10 @@
       <c r="I227" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J227" s="9"/>
+      <c r="J227" s="9">
+        <f>1/3600/1000000000</f>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K227" s="9" t="s">
         <v>135</v>
       </c>
@@ -11864,9 +13305,15 @@
       <c r="M227" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA227" s="20"/>
-    </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N227" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB227" s="20"/>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A228" s="19" t="s">
         <v>101</v>
       </c>
@@ -11892,7 +13339,10 @@
       <c r="I228" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J228" s="9"/>
+      <c r="J228" s="9">
+        <f t="shared" ref="J228:J239" si="5">1/3600/1000000000</f>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K228" s="9" t="s">
         <v>135</v>
       </c>
@@ -11902,9 +13352,15 @@
       <c r="M228" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA228" s="20"/>
-    </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N228" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB228" s="20"/>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>101</v>
       </c>
@@ -11930,7 +13386,10 @@
       <c r="I229" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J229" s="9"/>
+      <c r="J229" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K229" s="9" t="s">
         <v>135</v>
       </c>
@@ -11940,9 +13399,15 @@
       <c r="M229" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA229" s="20"/>
-    </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N229" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB229" s="20"/>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A230" s="19" t="s">
         <v>101</v>
       </c>
@@ -11968,7 +13433,10 @@
       <c r="I230" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J230" s="9"/>
+      <c r="J230" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K230" s="9" t="s">
         <v>135</v>
       </c>
@@ -11978,9 +13446,15 @@
       <c r="M230" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA230" s="20"/>
-    </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N230" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB230" s="20"/>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
         <v>101</v>
       </c>
@@ -12006,7 +13480,10 @@
       <c r="I231" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J231" s="9"/>
+      <c r="J231" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K231" s="9" t="s">
         <v>135</v>
       </c>
@@ -12016,9 +13493,15 @@
       <c r="M231" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA231" s="12"/>
-    </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N231" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB231" s="12"/>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A232" s="19" t="s">
         <v>101</v>
       </c>
@@ -12044,7 +13527,10 @@
       <c r="I232" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J232" s="9"/>
+      <c r="J232" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K232" s="9" t="s">
         <v>135</v>
       </c>
@@ -12054,9 +13540,15 @@
       <c r="M232" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA232" s="21"/>
-    </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N232" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB232" s="21"/>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A233" s="19" t="s">
         <v>101</v>
       </c>
@@ -12082,7 +13574,10 @@
       <c r="I233" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J233" s="9"/>
+      <c r="J233" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K233" s="9" t="s">
         <v>135</v>
       </c>
@@ -12092,9 +13587,15 @@
       <c r="M233" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA233" s="20"/>
-    </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N233" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB233" s="20"/>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A234" s="19" t="s">
         <v>101</v>
       </c>
@@ -12120,7 +13621,10 @@
       <c r="I234" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J234" s="9"/>
+      <c r="J234" s="9">
+        <f>1/3600/1000000000</f>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K234" s="9" t="s">
         <v>135</v>
       </c>
@@ -12130,9 +13634,15 @@
       <c r="M234" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA234" s="12"/>
-    </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N234" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB234" s="12"/>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A235" s="19" t="s">
         <v>101</v>
       </c>
@@ -12158,7 +13668,10 @@
       <c r="I235" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J235" s="9"/>
+      <c r="J235" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K235" s="9" t="s">
         <v>135</v>
       </c>
@@ -12168,9 +13681,15 @@
       <c r="M235" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA235" s="20"/>
-    </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N235" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB235" s="20"/>
+      <c r="AC235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A236" s="19" t="s">
         <v>101</v>
       </c>
@@ -12196,7 +13715,10 @@
       <c r="I236" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J236" s="9"/>
+      <c r="J236" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K236" s="9" t="s">
         <v>135</v>
       </c>
@@ -12206,9 +13728,15 @@
       <c r="M236" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA236" s="20"/>
-    </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N236" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB236" s="20"/>
+      <c r="AC236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A237" s="19" t="s">
         <v>101</v>
       </c>
@@ -12234,7 +13762,10 @@
       <c r="I237" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J237" s="9"/>
+      <c r="J237" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K237" s="9" t="s">
         <v>135</v>
       </c>
@@ -12244,13 +13775,19 @@
       <c r="M237" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA237" s="20"/>
-    </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N237" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB237" s="20"/>
+      <c r="AC237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A238" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C238" s="9" t="s">
@@ -12258,6 +13795,9 @@
       </c>
       <c r="D238" s="9" t="s">
         <v>102</v>
+      </c>
+      <c r="E238" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>99</v>
@@ -12269,23 +13809,32 @@
       <c r="I238" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J238" s="9"/>
+      <c r="J238" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K238" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L238" t="s">
+      <c r="L238" s="26" t="s">
         <v>141</v>
       </c>
       <c r="M238" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA238" s="12"/>
-    </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N238" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB238" s="12"/>
+      <c r="AC238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A239" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C239" s="9" t="s">
@@ -12293,6 +13842,9 @@
       </c>
       <c r="D239" s="9" t="s">
         <v>102</v>
+      </c>
+      <c r="E239" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>111</v>
@@ -12304,26 +13856,35 @@
       <c r="I239" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J239" s="9"/>
+      <c r="J239" s="9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K239" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L239" t="s">
+      <c r="L239" s="26" t="s">
         <v>141</v>
       </c>
       <c r="M239" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA239" s="12"/>
-    </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N239" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB239" s="12"/>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A240" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B240" t="s">
         <v>79</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" t="s">
         <v>80</v>
       </c>
       <c r="D240" s="9" t="s">
@@ -12342,7 +13903,10 @@
       <c r="I240" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J240" s="9"/>
+      <c r="J240" s="9">
+        <f>1/3600/1000000000</f>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K240" s="9" t="s">
         <v>135</v>
       </c>
@@ -12352,16 +13916,22 @@
       <c r="M240" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA240" s="12"/>
-    </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N240" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB240" s="12"/>
+      <c r="AC240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A241" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B241" t="s">
         <v>79</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C241" t="s">
         <v>80</v>
       </c>
       <c r="D241" s="9" t="s">
@@ -12380,7 +13950,10 @@
       <c r="I241" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J241" s="9"/>
+      <c r="J241" s="9">
+        <f t="shared" ref="J241:J252" si="6">1/3600/1000000000</f>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K241" s="9" t="s">
         <v>135</v>
       </c>
@@ -12390,16 +13963,22 @@
       <c r="M241" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA241" s="12"/>
-    </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N241" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB241" s="12"/>
+      <c r="AC241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A242" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B242" t="s">
         <v>79</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" t="s">
         <v>80</v>
       </c>
       <c r="D242" s="9" t="s">
@@ -12418,7 +13997,10 @@
       <c r="I242" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J242" s="9"/>
+      <c r="J242" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K242" s="9" t="s">
         <v>135</v>
       </c>
@@ -12428,16 +14010,22 @@
       <c r="M242" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA242" s="12"/>
-    </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N242" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB242" s="12"/>
+      <c r="AC242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A243" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B243" t="s">
         <v>79</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="C243" t="s">
         <v>80</v>
       </c>
       <c r="D243" s="9" t="s">
@@ -12456,7 +14044,10 @@
       <c r="I243" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J243" s="9"/>
+      <c r="J243" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K243" s="9" t="s">
         <v>135</v>
       </c>
@@ -12466,16 +14057,22 @@
       <c r="M243" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA243" s="12"/>
-    </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N243" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB243" s="12"/>
+      <c r="AC243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A244" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B244" t="s">
         <v>79</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" t="s">
         <v>80</v>
       </c>
       <c r="D244" s="9" t="s">
@@ -12494,7 +14091,10 @@
       <c r="I244" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J244" s="9"/>
+      <c r="J244" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K244" s="9" t="s">
         <v>135</v>
       </c>
@@ -12504,16 +14104,22 @@
       <c r="M244" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA244" s="12"/>
-    </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N244" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB244" s="12"/>
+      <c r="AC244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A245" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B245" t="s">
         <v>79</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C245" t="s">
         <v>80</v>
       </c>
       <c r="D245" s="9" t="s">
@@ -12532,7 +14138,10 @@
       <c r="I245" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J245" s="9"/>
+      <c r="J245" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K245" s="9" t="s">
         <v>135</v>
       </c>
@@ -12542,16 +14151,22 @@
       <c r="M245" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA245" s="12"/>
-    </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N245" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB245" s="12"/>
+      <c r="AC245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A246" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B246" t="s">
         <v>79</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C246" t="s">
         <v>80</v>
       </c>
       <c r="D246" s="9" t="s">
@@ -12570,7 +14185,10 @@
       <c r="I246" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J246" s="9"/>
+      <c r="J246" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K246" s="9" t="s">
         <v>135</v>
       </c>
@@ -12580,16 +14198,22 @@
       <c r="M246" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA246" s="12"/>
-    </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N246" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB246" s="12"/>
+      <c r="AC246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A247" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B247" t="s">
         <v>79</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" t="s">
         <v>80</v>
       </c>
       <c r="D247" s="9" t="s">
@@ -12608,7 +14232,10 @@
       <c r="I247" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J247" s="9"/>
+      <c r="J247" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K247" s="9" t="s">
         <v>135</v>
       </c>
@@ -12618,16 +14245,22 @@
       <c r="M247" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA247" s="12"/>
-    </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N247" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB247" s="12"/>
+      <c r="AC247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A248" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B248" t="s">
         <v>79</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C248" t="s">
         <v>80</v>
       </c>
       <c r="D248" s="9" t="s">
@@ -12646,7 +14279,10 @@
       <c r="I248" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J248" s="9"/>
+      <c r="J248" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K248" s="9" t="s">
         <v>135</v>
       </c>
@@ -12656,16 +14292,22 @@
       <c r="M248" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA248" s="12"/>
-    </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N248" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB248" s="12"/>
+      <c r="AC248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A249" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B249" t="s">
         <v>79</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C249" t="s">
         <v>80</v>
       </c>
       <c r="D249" s="9" t="s">
@@ -12684,7 +14326,10 @@
       <c r="I249" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J249" s="9"/>
+      <c r="J249" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K249" s="9" t="s">
         <v>135</v>
       </c>
@@ -12694,16 +14339,22 @@
       <c r="M249" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA249" s="12"/>
-    </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N249" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB249" s="12"/>
+      <c r="AC249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A250" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B250" t="s">
         <v>79</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" t="s">
         <v>80</v>
       </c>
       <c r="D250" s="9" t="s">
@@ -12722,7 +14373,10 @@
       <c r="I250" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J250" s="9"/>
+      <c r="J250" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K250" s="9" t="s">
         <v>135</v>
       </c>
@@ -12732,9 +14386,15 @@
       <c r="M250" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA250" s="12"/>
-    </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N250" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB250" s="12"/>
+      <c r="AC250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A251" s="19" t="s">
         <v>101</v>
       </c>
@@ -12746,6 +14406,9 @@
       </c>
       <c r="D251" s="9" t="s">
         <v>113</v>
+      </c>
+      <c r="E251" t="s">
+        <v>101</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>99</v>
@@ -12757,7 +14420,10 @@
       <c r="I251" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J251" s="9"/>
+      <c r="J251" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
       <c r="K251" s="9" t="s">
         <v>135</v>
       </c>
@@ -12767,44 +14433,62 @@
       <c r="M251" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AA251" s="12"/>
-    </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A252" s="19" t="s">
+      <c r="N251" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB251" s="12"/>
+      <c r="AC251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B252" t="s">
-        <v>79</v>
-      </c>
-      <c r="C252" s="9" t="s">
+      <c r="B252" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C252" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="D252" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F252" s="9" t="s">
+      <c r="E252" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F252" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G252" s="9"/>
-      <c r="H252" s="9" t="s">
+      <c r="G252" s="29"/>
+      <c r="H252" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="I252" s="9" t="s">
+      <c r="I252" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J252" s="9"/>
-      <c r="K252" s="9" t="s">
+      <c r="J252" s="29">
+        <f t="shared" si="6"/>
+        <v>2.7777777777777779E-13</v>
+      </c>
+      <c r="K252" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="L252" t="s">
+      <c r="L252" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="M252" s="9" t="s">
+      <c r="M252" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="AA252" s="12"/>
-    </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N252" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB252" s="30"/>
+      <c r="AC252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>101</v>
       </c>
@@ -12820,12 +14504,16 @@
       <c r="E253" t="s">
         <v>87</v>
       </c>
+      <c r="F253" s="25"/>
       <c r="G253" t="s">
         <v>117</v>
       </c>
       <c r="I253" t="s">
         <v>125</v>
       </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
       <c r="K253" s="9" t="s">
         <v>135</v>
       </c>
@@ -12835,8 +14523,14 @@
       <c r="M253" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N253" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>101</v>
       </c>
@@ -12852,12 +14546,16 @@
       <c r="E254" t="s">
         <v>87</v>
       </c>
+      <c r="F254" s="25"/>
       <c r="G254" t="s">
         <v>118</v>
       </c>
       <c r="I254" t="s">
         <v>125</v>
       </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
       <c r="K254" s="9" t="s">
         <v>135</v>
       </c>
@@ -12867,8 +14565,14 @@
       <c r="M254" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N254" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>101</v>
       </c>
@@ -12884,12 +14588,16 @@
       <c r="E255" t="s">
         <v>87</v>
       </c>
+      <c r="F255" s="25"/>
       <c r="G255" t="s">
         <v>119</v>
       </c>
       <c r="I255" t="s">
         <v>125</v>
       </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
       <c r="K255" s="9" t="s">
         <v>135</v>
       </c>
@@ -12899,8 +14607,14 @@
       <c r="M255" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N255" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>101</v>
       </c>
@@ -12916,12 +14630,16 @@
       <c r="E256" t="s">
         <v>81</v>
       </c>
+      <c r="F256" s="25"/>
       <c r="G256" t="s">
         <v>120</v>
       </c>
       <c r="I256" t="s">
         <v>125</v>
       </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
       <c r="K256" s="9" t="s">
         <v>135</v>
       </c>
@@ -12931,8 +14649,14 @@
       <c r="M256" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N256" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>101</v>
       </c>
@@ -12948,12 +14672,16 @@
       <c r="E257" t="s">
         <v>81</v>
       </c>
+      <c r="F257" s="25"/>
       <c r="G257" t="s">
         <v>121</v>
       </c>
       <c r="I257" t="s">
         <v>125</v>
       </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
       <c r="K257" s="9" t="s">
         <v>135</v>
       </c>
@@ -12963,8 +14691,14 @@
       <c r="M257" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N257" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>101</v>
       </c>
@@ -12980,12 +14714,16 @@
       <c r="E258" t="s">
         <v>81</v>
       </c>
+      <c r="F258" s="25"/>
       <c r="G258" t="s">
         <v>122</v>
       </c>
       <c r="I258" t="s">
         <v>125</v>
       </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
       <c r="K258" s="9" t="s">
         <v>135</v>
       </c>
@@ -12995,8 +14733,14 @@
       <c r="M258" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N258" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>101</v>
       </c>
@@ -13012,12 +14756,16 @@
       <c r="E259" t="s">
         <v>81</v>
       </c>
+      <c r="F259" s="25"/>
       <c r="G259" t="s">
         <v>123</v>
       </c>
       <c r="I259" t="s">
         <v>125</v>
       </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
       <c r="K259" s="9" t="s">
         <v>135</v>
       </c>
@@ -13027,9 +14775,93 @@
       <c r="M259" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="N259" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A260" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B260" t="s">
+        <v>79</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D260" t="s">
+        <v>96</v>
+      </c>
+      <c r="I260" t="s">
+        <v>97</v>
+      </c>
+      <c r="J260">
+        <f t="shared" ref="J260:J261" si="7">10000000</f>
+        <v>10000000</v>
+      </c>
+      <c r="K260" t="s">
+        <v>135</v>
+      </c>
+      <c r="L260" t="s">
+        <v>139</v>
+      </c>
+      <c r="M260" t="s">
+        <v>164</v>
+      </c>
+      <c r="N260" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="AC260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A261" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B261" t="s">
+        <v>79</v>
+      </c>
+      <c r="C261" t="s">
+        <v>80</v>
+      </c>
+      <c r="D261" t="s">
+        <v>96</v>
+      </c>
+      <c r="I261" t="s">
+        <v>97</v>
+      </c>
+      <c r="J261">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="K261" t="s">
+        <v>135</v>
+      </c>
+      <c r="L261" t="s">
+        <v>139</v>
+      </c>
+      <c r="M261" t="s">
+        <v>164</v>
+      </c>
+      <c r="N261" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="AC261">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH259" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <autoFilter ref="A1:AC261" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
